--- a/results/Products(100)-US-210319_分析结果.xlsx
+++ b/results/Products(100)-US-210319_分析结果.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="416">
   <si>
     <t>关键词</t>
   </si>
@@ -25,12 +25,12 @@
     <t>词频</t>
   </si>
   <si>
+    <t>clock</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
-    <t>clock</t>
-  </si>
-  <si>
     <t>wall</t>
   </si>
   <si>
@@ -43,12 +43,12 @@
     <t>at</t>
   </si>
   <si>
+    <t>inch</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>inch</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
@@ -61,57 +61,57 @@
     <t>operated</t>
   </si>
   <si>
+    <t>home</t>
+  </si>
+  <si>
     <t>non</t>
   </si>
   <si>
+    <t>for</t>
+  </si>
+  <si>
     <t>ticking</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
     <t>battery</t>
   </si>
   <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
-    <t>room</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>office</t>
+  </si>
+  <si>
+    <t>bedroom</t>
   </si>
   <si>
     <t>la</t>
   </si>
   <si>
-    <t>bedroom</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
+    <t>round</t>
+  </si>
+  <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>office</t>
-  </si>
-  <si>
-    <t>round</t>
-  </si>
-  <si>
-    <t>clocks</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
     <t>quartz</t>
   </si>
   <si>
+    <t>living</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -121,9 +121,6 @@
     <t>nonticking</t>
   </si>
   <si>
-    <t>living</t>
-  </si>
-  <si>
     <t>large</t>
   </si>
   <si>
@@ -133,61 +130,70 @@
     <t>decorative</t>
   </si>
   <si>
+    <t>number</t>
+  </si>
+  <si>
     <t>3d</t>
   </si>
   <si>
     <t>read</t>
   </si>
   <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>vintage</t>
   </si>
   <si>
-    <t>school</t>
-  </si>
-  <si>
     <t>modern</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
+    <t>numeral</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>and</t>
+    <t>indoor</t>
+  </si>
+  <si>
+    <t>retro</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>retro</t>
-  </si>
-  <si>
-    <t>indoor</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>wood</t>
   </si>
   <si>
+    <t>digit</t>
+  </si>
+  <si>
+    <t>rustic</t>
+  </si>
+  <si>
+    <t>atomic</t>
+  </si>
+  <si>
     <t>style</t>
   </si>
   <si>
-    <t>rustic</t>
-  </si>
-  <si>
-    <t>atomic</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>digit</t>
+    <t>sticker</t>
+  </si>
+  <si>
+    <t>bathroom</t>
   </si>
   <si>
     <t>diy</t>
@@ -196,1171 +202,1060 @@
     <t>analog</t>
   </si>
   <si>
-    <t>bathroom</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>wooden</t>
   </si>
   <si>
     <t>frame</t>
   </si>
   <si>
-    <t>numeral</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
-    <t>x</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>farmhouse</t>
+  </si>
+  <si>
+    <t>technology</t>
   </si>
   <si>
     <t>the</t>
   </si>
   <si>
-    <t>digital</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>crosse</t>
   </si>
   <si>
-    <t>technology</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>wooden</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>inches</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>farmhouse</t>
+    <t>arabic</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>light</t>
   </si>
   <si>
     <t>decoration</t>
   </si>
   <si>
-    <t>arabic</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
-    <t>sticker</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>temperature</t>
   </si>
   <si>
+    <t>mirror</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
     <t>stand</t>
   </si>
   <si>
-    <t>mirror</t>
-  </si>
-  <si>
     <t>movement</t>
   </si>
   <si>
-    <t>out</t>
-  </si>
-  <si>
-    <t>or…</t>
-  </si>
-  <si>
     <t>display</t>
   </si>
   <si>
-    <t>kids</t>
+    <t>frameles</t>
+  </si>
+  <si>
+    <t>outdoor</t>
+  </si>
+  <si>
+    <t>spoon</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>classroom</t>
+  </si>
+  <si>
+    <t>kid</t>
   </si>
   <si>
     <t>color</t>
   </si>
   <si>
+    <t>firstime</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>cover</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
     <t>roman</t>
   </si>
   <si>
-    <t>frameless</t>
-  </si>
-  <si>
-    <t>firstime</t>
-  </si>
-  <si>
-    <t>classroom</t>
-  </si>
-  <si>
-    <t>numerals</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>temp</t>
-  </si>
-  <si>
-    <t>big</t>
+    <t>fork</t>
   </si>
   <si>
     <t>decro</t>
   </si>
   <si>
-    <t>stickers</t>
+    <t>patio</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>décor</t>
+  </si>
+  <si>
+    <t>lamiko</t>
+  </si>
+  <si>
+    <t>marathon</t>
+  </si>
+  <si>
+    <t>edition</t>
+  </si>
+  <si>
+    <t>calendar</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
+    <t>sweep</t>
+  </si>
+  <si>
     <t>waterproof</t>
   </si>
   <si>
-    <t>home…</t>
-  </si>
-  <si>
-    <t>patio</t>
-  </si>
-  <si>
-    <t>lamiko</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>marathon</t>
-  </si>
-  <si>
-    <t>outdoor</t>
-  </si>
-  <si>
-    <t>night</t>
-  </si>
-  <si>
-    <t>cover</t>
-  </si>
-  <si>
-    <t>décor</t>
-  </si>
-  <si>
-    <t>calendar</t>
-  </si>
-  <si>
-    <t>sweep</t>
+    <t>learning</t>
+  </si>
+  <si>
+    <t>45min</t>
+  </si>
+  <si>
+    <t>tell</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>homeofficeschool</t>
+  </si>
+  <si>
+    <t>led</t>
+  </si>
+  <si>
+    <t>desk</t>
+  </si>
+  <si>
+    <t>plumeet</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>timer</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>bernhard</t>
+  </si>
+  <si>
+    <t>american</t>
   </si>
   <si>
     <t>dreamsky</t>
   </si>
   <si>
-    <t>edition</t>
-  </si>
-  <si>
-    <t>desk</t>
+    <t>dst</t>
   </si>
   <si>
     <t>shiplap</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>dst</t>
+    <t>date</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>stylish</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>colorful</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>glas</t>
+  </si>
+  <si>
+    <t>stonebriar</t>
   </si>
   <si>
     <t>hylanda</t>
   </si>
   <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>stylish</t>
-  </si>
-  <si>
-    <t>spoon</t>
-  </si>
-  <si>
     <t>95</t>
   </si>
   <si>
-    <t>fork</t>
-  </si>
-  <si>
-    <t>american</t>
-  </si>
-  <si>
-    <t>led</t>
-  </si>
-  <si>
-    <t>learning</t>
-  </si>
-  <si>
-    <t>glass</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>homeofficeschool</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>45min</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>bernhard</t>
-  </si>
-  <si>
-    <t>tell</t>
-  </si>
-  <si>
-    <t>plumeet</t>
-  </si>
-  <si>
-    <t>stonebriar</t>
-  </si>
-  <si>
-    <t>colorful</t>
-  </si>
-  <si>
     <t>fold</t>
   </si>
   <si>
-    <t>for…</t>
-  </si>
-  <si>
-    <t>clock…</t>
-  </si>
-  <si>
-    <t>forks</t>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>hito</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>require</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>accurate</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>glance</t>
+  </si>
+  <si>
+    <t>10inch</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>quiet</t>
+  </si>
+  <si>
+    <t>adalene</t>
+  </si>
+  <si>
+    <t>echo</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>indooroutdoor</t>
+  </si>
+  <si>
+    <t>jumbo</t>
+  </si>
+  <si>
+    <t>timelike</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>surface</t>
+  </si>
+  <si>
+    <t>aluminum</t>
+  </si>
+  <si>
+    <t>art</t>
   </si>
   <si>
     <t>compatible</t>
   </si>
   <si>
-    <t>surface</t>
-  </si>
-  <si>
-    <t>watches</t>
-  </si>
-  <si>
-    <t>sorbus</t>
-  </si>
-  <si>
-    <t>aluminum</t>
+    <t>1224</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>mechanism</t>
+  </si>
+  <si>
+    <t>oversized</t>
+  </si>
+  <si>
+    <t>mickey</t>
+  </si>
+  <si>
+    <t>cigera</t>
+  </si>
+  <si>
+    <t>crafted</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>teaching</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>telling</t>
+  </si>
+  <si>
+    <t>bronze</t>
+  </si>
+  <si>
+    <t>bright</t>
+  </si>
+  <si>
+    <t>thermometer</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>panoramic</t>
+  </si>
+  <si>
+    <t>diameter</t>
+  </si>
+  <si>
+    <t>stainles</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>slim</t>
+  </si>
+  <si>
+    <t>decorblack</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>dial</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>cutlery</t>
   </si>
   <si>
     <t>antique</t>
   </si>
   <si>
-    <t>living…</t>
-  </si>
-  <si>
-    <t>telling</t>
+    <t>sorbu</t>
+  </si>
+  <si>
+    <t>simple</t>
   </si>
   <si>
     <t>yoobure</t>
   </si>
   <si>
-    <t>art</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>extra</t>
-  </si>
-  <si>
-    <t>quiet</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>teacher</t>
-  </si>
-  <si>
-    <t>bronze</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>10inch</t>
-  </si>
-  <si>
-    <t>adalene</t>
-  </si>
-  <si>
-    <t>cigera</t>
-  </si>
-  <si>
-    <t>gray</t>
-  </si>
-  <si>
-    <t>requires</t>
-  </si>
-  <si>
-    <t>indooroutdoor</t>
-  </si>
-  <si>
-    <t>glance</t>
-  </si>
-  <si>
-    <t>jumbo</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>1224</t>
-  </si>
-  <si>
-    <t>panoramic</t>
-  </si>
-  <si>
-    <t>room…</t>
-  </si>
-  <si>
-    <t>function</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>timelike</t>
-  </si>
-  <si>
-    <t>dial</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>device</t>
-  </si>
-  <si>
-    <t>spoons</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>decorblack</t>
+    <t>silver</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
-    <t>batteries</t>
-  </si>
-  <si>
-    <t>thermometer</t>
-  </si>
-  <si>
-    <t>slim</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>office…</t>
-  </si>
-  <si>
-    <t>cutlery</t>
-  </si>
-  <si>
-    <t>oversized</t>
-  </si>
-  <si>
-    <t>diameter</t>
-  </si>
-  <si>
-    <t>teaching</t>
-  </si>
-  <si>
-    <t>digits</t>
-  </si>
-  <si>
-    <t>mechanism</t>
-  </si>
-  <si>
-    <t>echo</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>cat</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>mickey</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>hito</t>
-  </si>
-  <si>
-    <t>stainless</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>mouse</t>
-  </si>
-  <si>
-    <t>crafted</t>
-  </si>
-  <si>
-    <t>timers</t>
-  </si>
-  <si>
-    <t>silver</t>
-  </si>
-  <si>
-    <t>bright</t>
+    <t>print</t>
+  </si>
+  <si>
+    <t>wwvb</t>
+  </si>
+  <si>
+    <t>presentime</t>
+  </si>
+  <si>
+    <t>zone</t>
   </si>
   <si>
     <t>patiohome</t>
   </si>
   <si>
-    <t>philips</t>
+    <t>pendulum</t>
+  </si>
+  <si>
+    <t>yortot</t>
+  </si>
+  <si>
+    <t>owlconic</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>playroom</t>
+  </si>
+  <si>
+    <t>oysterpop</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
+    <t>nursery</t>
+  </si>
+  <si>
+    <t>painting</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>plank</t>
+  </si>
+  <si>
+    <t>philip</t>
+  </si>
+  <si>
+    <t>officebathroomliving</t>
+  </si>
+  <si>
+    <t>whitney</t>
+  </si>
+  <si>
+    <t>qilmy</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>stalwart</t>
+  </si>
+  <si>
+    <t>steel</t>
+  </si>
+  <si>
+    <t>stopwatch</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>worn</t>
+  </si>
+  <si>
+    <t>suitable</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>sunflower</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>thermometerbattery</t>
+  </si>
+  <si>
+    <t>tuning</t>
+  </si>
+  <si>
+    <t>wt8002u</t>
+  </si>
+  <si>
+    <t>tuscan</t>
+  </si>
+  <si>
+    <t>ultimate</t>
+  </si>
+  <si>
+    <t>ultratomic</t>
+  </si>
+  <si>
+    <t>victor</t>
+  </si>
+  <si>
+    <t>vinjoyce</t>
+  </si>
+  <si>
+    <t>vintageretro</t>
+  </si>
+  <si>
+    <t>visual</t>
+  </si>
+  <si>
+    <t>vreaone</t>
+  </si>
+  <si>
+    <t>walldesk</t>
+  </si>
+  <si>
+    <t>walnut</t>
+  </si>
+  <si>
+    <t>whisper</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>soledi</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>wt3102b</t>
+  </si>
+  <si>
+    <t>qukueoy</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>raised</t>
+  </si>
+  <si>
+    <t>remote</t>
+  </si>
+  <si>
+    <t>removable</t>
+  </si>
+  <si>
+    <t>resetblacksilver</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>wt3143aint</t>
+  </si>
+  <si>
+    <t>roomoffice</t>
+  </si>
+  <si>
+    <t>rose</t>
+  </si>
+  <si>
+    <t>rubbed</t>
+  </si>
+  <si>
+    <t>seasonal</t>
+  </si>
+  <si>
+    <t>secret</t>
+  </si>
+  <si>
+    <t>selfset</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>setting</t>
+  </si>
+  <si>
+    <t>sharp</t>
+  </si>
+  <si>
+    <t>shelf</t>
+  </si>
+  <si>
+    <t>shower</t>
   </si>
   <si>
     <t>whitegreyblack</t>
   </si>
   <si>
-    <t>pendulum</t>
-  </si>
-  <si>
-    <t>whitney</t>
-  </si>
-  <si>
-    <t>owlconic</t>
-  </si>
-  <si>
-    <t>wooden…</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>yortot</t>
-  </si>
-  <si>
-    <t>zones</t>
-  </si>
-  <si>
-    <t>officebathroomliving…</t>
-  </si>
-  <si>
-    <t>wwvb</t>
-  </si>
-  <si>
-    <t>operated…</t>
-  </si>
-  <si>
-    <t>wt8002u</t>
-  </si>
-  <si>
-    <t>wt3143aint</t>
+    <t>singing</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>sku</t>
   </si>
   <si>
     <t>wt3122a</t>
   </si>
   <si>
-    <t>outdoor…</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>oysterpop</t>
-  </si>
-  <si>
-    <t>packs</t>
-  </si>
-  <si>
-    <t>wt3102b</t>
-  </si>
-  <si>
-    <t>painting</t>
-  </si>
-  <si>
-    <t>worn</t>
-  </si>
-  <si>
-    <t>nursery</t>
-  </si>
-  <si>
-    <t>parents</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>plank</t>
-  </si>
-  <si>
-    <t>teachers</t>
-  </si>
-  <si>
-    <t>playroom</t>
-  </si>
-  <si>
-    <t>selfset</t>
-  </si>
-  <si>
-    <t>tuscan</t>
-  </si>
-  <si>
-    <t>setting</t>
-  </si>
-  <si>
-    <t>sharp</t>
-  </si>
-  <si>
-    <t>shelf</t>
-  </si>
-  <si>
-    <t>tuning</t>
-  </si>
-  <si>
-    <t>shower</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>timer</t>
-  </si>
-  <si>
-    <t>singing</t>
-  </si>
-  <si>
-    <t>thermometerbattery</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>numerals…</t>
-  </si>
-  <si>
-    <t>sku…</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>soledi</t>
-  </si>
-  <si>
-    <t>square</t>
-  </si>
-  <si>
-    <t>stalwart</t>
-  </si>
-  <si>
-    <t>steel</t>
-  </si>
-  <si>
-    <t>stopwatch</t>
-  </si>
-  <si>
-    <t>storage</t>
-  </si>
-  <si>
-    <t>student</t>
-  </si>
-  <si>
-    <t>suitable</t>
-  </si>
-  <si>
-    <t>sunflowers</t>
-  </si>
-  <si>
-    <t>series</t>
-  </si>
-  <si>
-    <t>secret</t>
-  </si>
-  <si>
-    <t>presentime</t>
-  </si>
-  <si>
-    <t>seasonal</t>
-  </si>
-  <si>
-    <t>whisper</t>
-  </si>
-  <si>
-    <t>print</t>
-  </si>
-  <si>
-    <t>qilmy</t>
-  </si>
-  <si>
-    <t>walnut</t>
-  </si>
-  <si>
-    <t>qukueoy</t>
-  </si>
-  <si>
-    <t>radio</t>
-  </si>
-  <si>
-    <t>walldesk</t>
-  </si>
-  <si>
-    <t>raised</t>
-  </si>
-  <si>
-    <t>red…</t>
-  </si>
-  <si>
-    <t>remote</t>
-  </si>
-  <si>
-    <t>removable</t>
-  </si>
-  <si>
-    <t>resetblacksilver</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>vreaone</t>
-  </si>
-  <si>
-    <t>visual</t>
-  </si>
-  <si>
-    <t>vintageretro</t>
-  </si>
-  <si>
-    <t>roomoffice</t>
-  </si>
-  <si>
-    <t>rose</t>
-  </si>
-  <si>
-    <t>victor</t>
-  </si>
-  <si>
-    <t>rubbed</t>
-  </si>
-  <si>
-    <t>ultratomic</t>
-  </si>
-  <si>
-    <t>ultimate</t>
-  </si>
-  <si>
-    <t>school…</t>
-  </si>
-  <si>
-    <t>vinjoyce</t>
+    <t>homeoffice</t>
+  </si>
+  <si>
+    <t>nikky</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>charcoal</t>
+  </si>
+  <si>
+    <t>centurion</t>
+  </si>
+  <si>
+    <t>centurian</t>
+  </si>
+  <si>
+    <t>caseblack</t>
+  </si>
+  <si>
+    <t>by</t>
+  </si>
+  <si>
+    <t>brightnes</t>
+  </si>
+  <si>
+    <t>bedroomliving</t>
+  </si>
+  <si>
+    <t>chic</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>bathing</t>
+  </si>
+  <si>
+    <t>barn</t>
+  </si>
+  <si>
+    <t>baldr</t>
+  </si>
+  <si>
+    <t>backlight</t>
+  </si>
+  <si>
+    <t>avery</t>
+  </si>
+  <si>
+    <t>cherry</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>completely</t>
+  </si>
+  <si>
+    <t>cuckoo</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>cozroom</t>
+  </si>
+  <si>
+    <t>countdown</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t>compartment</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>commercial</t>
+  </si>
+  <si>
+    <t>colorgraphite</t>
+  </si>
+  <si>
+    <t>collection</t>
+  </si>
+  <si>
+    <t>clock3d</t>
+  </si>
+  <si>
+    <t>clock10</t>
+  </si>
+  <si>
+    <t>cl030068bkb</t>
+  </si>
+  <si>
+    <t>autumn</t>
+  </si>
+  <si>
+    <t>autoset</t>
+  </si>
+  <si>
+    <t>automatic</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>4041235uas</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>31201</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>audubon</t>
+  </si>
+  <si>
+    <t>14inch</t>
+  </si>
+  <si>
+    <t>13inch</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>1224h</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>10”</t>
+  </si>
+  <si>
+    <t>4042631c</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>5131419blv4int</t>
+  </si>
+  <si>
+    <t>825894</t>
+  </si>
+  <si>
+    <t>8in</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>accessory</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>acrylic</t>
+  </si>
+  <si>
+    <t>aililife</t>
+  </si>
+  <si>
+    <t>aj3116m37</t>
+  </si>
+  <si>
+    <t>alarm</t>
+  </si>
+  <si>
+    <t>alaza</t>
+  </si>
+  <si>
+    <t>alexa</t>
+  </si>
+  <si>
+    <t>arabicromanarabic</t>
+  </si>
+  <si>
+    <t>arlo</t>
+  </si>
+  <si>
+    <t>associate</t>
+  </si>
+  <si>
+    <t>cugbo</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>nightfall</t>
+  </si>
+  <si>
+    <t>incharabic</t>
+  </si>
+  <si>
+    <t>jofomp</t>
+  </si>
+  <si>
+    <t>ivation</t>
+  </si>
+  <si>
+    <t>irregular</t>
+  </si>
+  <si>
+    <t>interior</t>
+  </si>
+  <si>
+    <t>industrial</t>
+  </si>
+  <si>
+    <t>included</t>
+  </si>
+  <si>
+    <t>hzdhclh</t>
+  </si>
+  <si>
+    <t>klock</t>
+  </si>
+  <si>
+    <t>humidity</t>
+  </si>
+  <si>
+    <t>hugo</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>homewall</t>
   </si>
   <si>
     <t>homeschool</t>
   </si>
   <si>
-    <t>numbers…</t>
-  </si>
-  <si>
-    <t>bedrooms</t>
-  </si>
-  <si>
-    <t>charcoal</t>
-  </si>
-  <si>
-    <t>centurion</t>
-  </si>
-  <si>
-    <t>centurian</t>
-  </si>
-  <si>
-    <t>caseblack</t>
-  </si>
-  <si>
-    <t>by</t>
-  </si>
-  <si>
-    <t>brightness</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>bedroomliving</t>
-  </si>
-  <si>
-    <t>nikky</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>batteries…</t>
-  </si>
-  <si>
-    <t>bathing</t>
-  </si>
-  <si>
-    <t>barn</t>
-  </si>
-  <si>
-    <t>baldr</t>
-  </si>
-  <si>
-    <t>backlight</t>
-  </si>
-  <si>
-    <t>avery</t>
-  </si>
-  <si>
-    <t>cherry</t>
-  </si>
-  <si>
-    <t>chic</t>
-  </si>
-  <si>
-    <t>children</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>cuckoo</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>cozroom</t>
-  </si>
-  <si>
-    <t>cover…</t>
-  </si>
-  <si>
-    <t>countdown</t>
-  </si>
-  <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>concept</t>
-  </si>
-  <si>
-    <t>completely</t>
-  </si>
-  <si>
-    <t>compartment</t>
-  </si>
-  <si>
-    <t>commercial</t>
-  </si>
-  <si>
-    <t>colorgraphite</t>
-  </si>
-  <si>
-    <t>collections</t>
-  </si>
-  <si>
-    <t>clock3d</t>
-  </si>
-  <si>
-    <t>clock10</t>
-  </si>
-  <si>
-    <t>cl030068bkbs</t>
-  </si>
-  <si>
-    <t>autumn</t>
-  </si>
-  <si>
-    <t>autoset</t>
-  </si>
-  <si>
-    <t>automatic</t>
-  </si>
-  <si>
-    <t>5131419blv4int</t>
-  </si>
-  <si>
-    <t>4042631c</t>
-  </si>
-  <si>
-    <t>4041235uass</t>
-  </si>
-  <si>
-    <t>325</t>
-  </si>
-  <si>
-    <t>31201</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>14inch</t>
-  </si>
-  <si>
-    <t>13inch</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>1224h</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>10”</t>
-  </si>
-  <si>
-    <t>50s</t>
-  </si>
-  <si>
-    <t>5…</t>
-  </si>
-  <si>
-    <t>audubon</t>
-  </si>
-  <si>
-    <t>825894</t>
-  </si>
-  <si>
-    <t>associates</t>
-  </si>
-  <si>
-    <t>arlo</t>
-  </si>
-  <si>
-    <t>arabicromanarabic</t>
-  </si>
-  <si>
-    <t>and…</t>
-  </si>
-  <si>
-    <t>alexa</t>
-  </si>
-  <si>
-    <t>alaza</t>
-  </si>
-  <si>
-    <t>alarms</t>
-  </si>
-  <si>
-    <t>aj3116m37</t>
-  </si>
-  <si>
-    <t>aililife</t>
-  </si>
-  <si>
-    <t>acrylic</t>
-  </si>
-  <si>
-    <t>accuracy</t>
-  </si>
-  <si>
-    <t>accessories</t>
-  </si>
-  <si>
-    <t>abs</t>
-  </si>
-  <si>
-    <t>8…</t>
-  </si>
-  <si>
-    <t>8in</t>
-  </si>
-  <si>
-    <t>cugbo</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>klock</t>
-  </si>
-  <si>
-    <t>jofomp</t>
-  </si>
-  <si>
-    <t>ivation</t>
-  </si>
-  <si>
-    <t>irregular</t>
-  </si>
-  <si>
-    <t>interior</t>
-  </si>
-  <si>
-    <t>industrial</t>
-  </si>
-  <si>
-    <t>indoor…</t>
-  </si>
-  <si>
-    <t>included</t>
-  </si>
-  <si>
-    <t>incharabic</t>
-  </si>
-  <si>
-    <t>hzdhclh</t>
-  </si>
-  <si>
-    <t>humidity</t>
-  </si>
-  <si>
-    <t>hugo</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>hour</t>
-  </si>
-  <si>
-    <t>homewall</t>
-  </si>
-  <si>
-    <t>homeoffice…</t>
-  </si>
-  <si>
     <t>justup</t>
   </si>
   <si>
     <t>lcd</t>
   </si>
   <si>
+    <t>decal</t>
+  </si>
+  <si>
+    <t>multicolor</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>needle</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>naanle</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>meidi</t>
+  </si>
+  <si>
+    <t>mdesign</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>luminou</t>
+  </si>
+  <si>
+    <t>loha</t>
+  </si>
+  <si>
+    <t>lightweight</t>
+  </si>
+  <si>
+    <t>homeofficeclassroomschool</t>
+  </si>
+  <si>
     <t>hippih</t>
   </si>
   <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>nightfall</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>needs</t>
-  </si>
-  <si>
-    <t>needles</t>
-  </si>
-  <si>
-    <t>naanle</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>multicolor</t>
-  </si>
-  <si>
-    <t>metal</t>
-  </si>
-  <si>
-    <t>meidi</t>
-  </si>
-  <si>
-    <t>mdesign</t>
-  </si>
-  <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>luminous</t>
-  </si>
-  <si>
-    <t>lohas</t>
-  </si>
-  <si>
-    <t>lightweight</t>
-  </si>
-  <si>
-    <t>homeofficeclassroomschool</t>
-  </si>
-  <si>
     <t>hidden</t>
   </si>
   <si>
-    <t>decal</t>
+    <t>distressed</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>elderly</t>
+  </si>
+  <si>
+    <t>educational</t>
+  </si>
+  <si>
+    <t>easily</t>
+  </si>
+  <si>
+    <t>durable</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>displaybattery</t>
+  </si>
+  <si>
+    <t>hd</t>
+  </si>
+  <si>
+    <t>disney</t>
+  </si>
+  <si>
+    <t>dimmer</t>
+  </si>
+  <si>
+    <t>dhchapu</t>
+  </si>
+  <si>
+    <t>designed</t>
+  </si>
+  <si>
+    <t>delight</t>
+  </si>
+  <si>
+    <t>decorate</t>
   </si>
   <si>
     <t>farmstead</t>
   </si>
   <si>
-    <t>elderly</t>
-  </si>
-  <si>
-    <t>educational</t>
-  </si>
-  <si>
-    <t>editions</t>
-  </si>
-  <si>
-    <t>easily</t>
-  </si>
-  <si>
-    <t>durable</t>
-  </si>
-  <si>
-    <t>door</t>
-  </si>
-  <si>
-    <t>distressed</t>
-  </si>
-  <si>
-    <t>displaybattery</t>
-  </si>
-  <si>
-    <t>disney</t>
-  </si>
-  <si>
-    <t>dimmer</t>
-  </si>
-  <si>
-    <t>dhchapu</t>
-  </si>
-  <si>
-    <t>designed</t>
-  </si>
-  <si>
-    <t>delight</t>
-  </si>
-  <si>
-    <t>decorative…</t>
-  </si>
-  <si>
-    <t>decorate</t>
-  </si>
-  <si>
-    <t>etc</t>
-  </si>
-  <si>
     <t>fashion</t>
   </si>
   <si>
-    <t>hd</t>
-  </si>
-  <si>
     <t>feldstein</t>
   </si>
   <si>
+    <t>finish</t>
+  </si>
+  <si>
+    <t>foldout</t>
+  </si>
+  <si>
+    <t>forksgreat</t>
+  </si>
+  <si>
+    <t>foxtop</t>
+  </si>
+  <si>
+    <t>gear</t>
+  </si>
+  <si>
+    <t>gentleman</t>
+  </si>
+  <si>
+    <t>geometric</t>
+  </si>
+  <si>
+    <t>giant</t>
+  </si>
+  <si>
+    <t>giftsblack</t>
+  </si>
+  <si>
+    <t>glowing</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>grey</t>
+  </si>
+  <si>
     <t>hanging</t>
-  </si>
-  <si>
-    <t>hands…</t>
-  </si>
-  <si>
-    <t>grey</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>glowing</t>
-  </si>
-  <si>
-    <t>giftsblack</t>
-  </si>
-  <si>
-    <t>giant</t>
-  </si>
-  <si>
-    <t>geometric</t>
-  </si>
-  <si>
-    <t>gentlemen</t>
-  </si>
-  <si>
-    <t>gear</t>
-  </si>
-  <si>
-    <t>foxtop</t>
-  </si>
-  <si>
-    <t>forksgreat</t>
-  </si>
-  <si>
-    <t>foldout</t>
-  </si>
-  <si>
-    <t>finish</t>
   </si>
   <si>
     <t>–</t>
@@ -1724,7 +1619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D450"/>
+  <dimension ref="A1:D415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1732,7 +1627,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1754,10 +1649,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>268181</v>
+        <v>274704</v>
       </c>
       <c r="D3">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1768,10 +1663,10 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>234689</v>
+        <v>268181</v>
       </c>
       <c r="D4">
-        <v>130</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1792,25 +1687,25 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
       <c r="C6">
-        <v>149585</v>
+        <v>126007</v>
       </c>
       <c r="D6">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
       <c r="C7">
-        <v>120570</v>
+        <v>149585</v>
       </c>
       <c r="D7">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1849,10 +1744,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>104091</v>
+        <v>102923</v>
       </c>
       <c r="D10">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1863,10 +1758,10 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>92328</v>
+        <v>104091</v>
       </c>
       <c r="D11">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1919,10 +1814,10 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>75478</v>
+        <v>77318</v>
       </c>
       <c r="D15">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1933,10 +1828,10 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>70984</v>
+        <v>78565</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1961,10 +1856,10 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>76255</v>
+        <v>63130</v>
       </c>
       <c r="D18">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1975,10 +1870,10 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>61947</v>
+        <v>70984</v>
       </c>
       <c r="D19">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1989,10 +1884,10 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>67382</v>
+        <v>71068</v>
       </c>
       <c r="D20">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2003,10 +1898,10 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>60891</v>
+        <v>59491</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2017,7 +1912,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>58342</v>
+        <v>49568</v>
       </c>
       <c r="D22">
         <v>33</v>
@@ -2031,7 +1926,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>49568</v>
+        <v>60891</v>
       </c>
       <c r="D23">
         <v>33</v>
@@ -2045,10 +1940,10 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>51509</v>
+        <v>69778</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2059,10 +1954,10 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>43163</v>
+        <v>43193</v>
       </c>
       <c r="D25">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2073,10 +1968,10 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>38433</v>
+        <v>51509</v>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2087,7 +1982,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>45734</v>
+        <v>38433</v>
       </c>
       <c r="D27">
         <v>28</v>
@@ -2101,7 +1996,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>62253</v>
+        <v>58664</v>
       </c>
       <c r="D28">
         <v>28</v>
@@ -2115,7 +2010,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>58664</v>
+        <v>45734</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -2129,10 +2024,10 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>38108</v>
+        <v>39330</v>
       </c>
       <c r="D30">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2143,7 +2038,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>39330</v>
+        <v>52101</v>
       </c>
       <c r="D31">
         <v>26</v>
@@ -2157,10 +2052,10 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>52101</v>
+        <v>40082</v>
       </c>
       <c r="D32">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2213,10 +2108,10 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>38255</v>
+        <v>36325</v>
       </c>
       <c r="D36">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2227,10 +2122,10 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>36325</v>
+        <v>24822</v>
       </c>
       <c r="D37">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2241,7 +2136,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>24822</v>
+        <v>30550</v>
       </c>
       <c r="D38">
         <v>21</v>
@@ -2255,7 +2150,7 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>30232</v>
+        <v>30754</v>
       </c>
       <c r="D39">
         <v>20</v>
@@ -2297,10 +2192,10 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <v>23096</v>
+        <v>32310</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2311,7 +2206,7 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>29282</v>
+        <v>22375</v>
       </c>
       <c r="D43">
         <v>16</v>
@@ -2325,7 +2220,7 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>30769</v>
+        <v>23096</v>
       </c>
       <c r="D44">
         <v>16</v>
@@ -2339,10 +2234,10 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>19289</v>
+        <v>30769</v>
       </c>
       <c r="D45">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2353,10 +2248,10 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>29662</v>
+        <v>20938</v>
       </c>
       <c r="D46">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2367,7 +2262,7 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <v>22017</v>
+        <v>25675</v>
       </c>
       <c r="D47">
         <v>15</v>
@@ -2381,10 +2276,10 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>25104</v>
+        <v>29662</v>
       </c>
       <c r="D48">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2395,10 +2290,10 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>16248</v>
+        <v>25749</v>
       </c>
       <c r="D49">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2409,7 +2304,7 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <v>24436</v>
+        <v>16248</v>
       </c>
       <c r="D50">
         <v>14</v>
@@ -2451,10 +2346,10 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <v>19140</v>
+        <v>25104</v>
       </c>
       <c r="D53">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2465,10 +2360,10 @@
         <v>53</v>
       </c>
       <c r="C54">
-        <v>22066</v>
+        <v>19140</v>
       </c>
       <c r="D54">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2479,10 +2374,10 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <v>17340</v>
+        <v>23467</v>
       </c>
       <c r="D55">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2493,7 +2388,7 @@
         <v>55</v>
       </c>
       <c r="C56">
-        <v>18067</v>
+        <v>17340</v>
       </c>
       <c r="D56">
         <v>11</v>
@@ -2507,7 +2402,7 @@
         <v>56</v>
       </c>
       <c r="C57">
-        <v>16577</v>
+        <v>18067</v>
       </c>
       <c r="D57">
         <v>11</v>
@@ -2521,10 +2416,10 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>21085</v>
+        <v>22066</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2535,10 +2430,10 @@
         <v>58</v>
       </c>
       <c r="C59">
-        <v>23209</v>
+        <v>20078</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2549,7 +2444,7 @@
         <v>59</v>
       </c>
       <c r="C60">
-        <v>13737</v>
+        <v>14561</v>
       </c>
       <c r="D60">
         <v>10</v>
@@ -2563,7 +2458,7 @@
         <v>60</v>
       </c>
       <c r="C61">
-        <v>14561</v>
+        <v>23209</v>
       </c>
       <c r="D61">
         <v>10</v>
@@ -2577,10 +2472,10 @@
         <v>61</v>
       </c>
       <c r="C62">
-        <v>22500</v>
+        <v>13737</v>
       </c>
       <c r="D62">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2591,7 +2486,7 @@
         <v>62</v>
       </c>
       <c r="C63">
-        <v>14330</v>
+        <v>13347</v>
       </c>
       <c r="D63">
         <v>9</v>
@@ -2605,7 +2500,7 @@
         <v>63</v>
       </c>
       <c r="C64">
-        <v>10719</v>
+        <v>14518</v>
       </c>
       <c r="D64">
         <v>9</v>
@@ -2619,7 +2514,7 @@
         <v>64</v>
       </c>
       <c r="C65">
-        <v>13347</v>
+        <v>22500</v>
       </c>
       <c r="D65">
         <v>9</v>
@@ -2633,10 +2528,10 @@
         <v>65</v>
       </c>
       <c r="C66">
-        <v>12228</v>
+        <v>10719</v>
       </c>
       <c r="D66">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2647,10 +2542,10 @@
         <v>66</v>
       </c>
       <c r="C67">
-        <v>17904</v>
+        <v>19884</v>
       </c>
       <c r="D67">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2661,7 +2556,7 @@
         <v>67</v>
       </c>
       <c r="C68">
-        <v>16469</v>
+        <v>10112</v>
       </c>
       <c r="D68">
         <v>8</v>
@@ -2675,7 +2570,7 @@
         <v>68</v>
       </c>
       <c r="C69">
-        <v>16469</v>
+        <v>17904</v>
       </c>
       <c r="D69">
         <v>8</v>
@@ -2689,7 +2584,7 @@
         <v>69</v>
       </c>
       <c r="C70">
-        <v>10112</v>
+        <v>25996</v>
       </c>
       <c r="D70">
         <v>8</v>
@@ -2703,7 +2598,7 @@
         <v>70</v>
       </c>
       <c r="C71">
-        <v>12832</v>
+        <v>10717</v>
       </c>
       <c r="D71">
         <v>8</v>
@@ -2717,7 +2612,7 @@
         <v>71</v>
       </c>
       <c r="C72">
-        <v>13449</v>
+        <v>16469</v>
       </c>
       <c r="D72">
         <v>8</v>
@@ -2731,7 +2626,7 @@
         <v>72</v>
       </c>
       <c r="C73">
-        <v>25996</v>
+        <v>12228</v>
       </c>
       <c r="D73">
         <v>8</v>
@@ -2759,7 +2654,7 @@
         <v>74</v>
       </c>
       <c r="C75">
-        <v>10595</v>
+        <v>12815</v>
       </c>
       <c r="D75">
         <v>8</v>
@@ -2773,7 +2668,7 @@
         <v>75</v>
       </c>
       <c r="C76">
-        <v>17174</v>
+        <v>16469</v>
       </c>
       <c r="D76">
         <v>8</v>
@@ -2787,10 +2682,10 @@
         <v>76</v>
       </c>
       <c r="C77">
-        <v>10717</v>
+        <v>11463</v>
       </c>
       <c r="D77">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2801,7 +2696,7 @@
         <v>77</v>
       </c>
       <c r="C78">
-        <v>22138</v>
+        <v>9477</v>
       </c>
       <c r="D78">
         <v>7</v>
@@ -2815,7 +2710,7 @@
         <v>78</v>
       </c>
       <c r="C79">
-        <v>11463</v>
+        <v>8027</v>
       </c>
       <c r="D79">
         <v>7</v>
@@ -2829,7 +2724,7 @@
         <v>79</v>
       </c>
       <c r="C80">
-        <v>9985</v>
+        <v>22138</v>
       </c>
       <c r="D80">
         <v>7</v>
@@ -2843,7 +2738,7 @@
         <v>80</v>
       </c>
       <c r="C81">
-        <v>14078</v>
+        <v>9985</v>
       </c>
       <c r="D81">
         <v>7</v>
@@ -2857,7 +2752,7 @@
         <v>81</v>
       </c>
       <c r="C82">
-        <v>11699</v>
+        <v>10685</v>
       </c>
       <c r="D82">
         <v>7</v>
@@ -2871,10 +2766,10 @@
         <v>82</v>
       </c>
       <c r="C83">
-        <v>8027</v>
+        <v>12187</v>
       </c>
       <c r="D83">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2885,10 +2780,10 @@
         <v>83</v>
       </c>
       <c r="C84">
-        <v>9477</v>
+        <v>9219</v>
       </c>
       <c r="D84">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2899,10 +2794,10 @@
         <v>84</v>
       </c>
       <c r="C85">
-        <v>10685</v>
+        <v>9587</v>
       </c>
       <c r="D85">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2913,7 +2808,7 @@
         <v>85</v>
       </c>
       <c r="C86">
-        <v>9587</v>
+        <v>9146</v>
       </c>
       <c r="D86">
         <v>6</v>
@@ -2927,10 +2822,10 @@
         <v>86</v>
       </c>
       <c r="C87">
-        <v>12187</v>
+        <v>8675</v>
       </c>
       <c r="D87">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2941,10 +2836,10 @@
         <v>87</v>
       </c>
       <c r="C88">
-        <v>9146</v>
+        <v>15812</v>
       </c>
       <c r="D88">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2955,10 +2850,10 @@
         <v>88</v>
       </c>
       <c r="C89">
-        <v>9219</v>
+        <v>10324</v>
       </c>
       <c r="D89">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2969,7 +2864,7 @@
         <v>89</v>
       </c>
       <c r="C90">
-        <v>5437</v>
+        <v>12890</v>
       </c>
       <c r="D90">
         <v>5</v>
@@ -2983,7 +2878,7 @@
         <v>90</v>
       </c>
       <c r="C91">
-        <v>8675</v>
+        <v>6260</v>
       </c>
       <c r="D91">
         <v>5</v>
@@ -2997,7 +2892,7 @@
         <v>91</v>
       </c>
       <c r="C92">
-        <v>6380</v>
+        <v>20727</v>
       </c>
       <c r="D92">
         <v>5</v>
@@ -3011,7 +2906,7 @@
         <v>92</v>
       </c>
       <c r="C93">
-        <v>5529</v>
+        <v>6380</v>
       </c>
       <c r="D93">
         <v>5</v>
@@ -3025,7 +2920,7 @@
         <v>93</v>
       </c>
       <c r="C94">
-        <v>5439</v>
+        <v>5529</v>
       </c>
       <c r="D94">
         <v>5</v>
@@ -3039,7 +2934,7 @@
         <v>94</v>
       </c>
       <c r="C95">
-        <v>4994</v>
+        <v>6074</v>
       </c>
       <c r="D95">
         <v>5</v>
@@ -3053,7 +2948,7 @@
         <v>95</v>
       </c>
       <c r="C96">
-        <v>15812</v>
+        <v>4678</v>
       </c>
       <c r="D96">
         <v>5</v>
@@ -3067,7 +2962,7 @@
         <v>96</v>
       </c>
       <c r="C97">
-        <v>6074</v>
+        <v>8865</v>
       </c>
       <c r="D97">
         <v>5</v>
@@ -3081,7 +2976,7 @@
         <v>97</v>
       </c>
       <c r="C98">
-        <v>20727</v>
+        <v>11511</v>
       </c>
       <c r="D98">
         <v>5</v>
@@ -3095,7 +2990,7 @@
         <v>98</v>
       </c>
       <c r="C99">
-        <v>10240</v>
+        <v>5439</v>
       </c>
       <c r="D99">
         <v>5</v>
@@ -3109,7 +3004,7 @@
         <v>99</v>
       </c>
       <c r="C100">
-        <v>8865</v>
+        <v>4994</v>
       </c>
       <c r="D100">
         <v>5</v>
@@ -3123,7 +3018,7 @@
         <v>100</v>
       </c>
       <c r="C101">
-        <v>6260</v>
+        <v>12890</v>
       </c>
       <c r="D101">
         <v>5</v>
@@ -3137,10 +3032,10 @@
         <v>101</v>
       </c>
       <c r="C102">
-        <v>4678</v>
+        <v>94</v>
       </c>
       <c r="D102">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3151,7 +3046,7 @@
         <v>102</v>
       </c>
       <c r="C103">
-        <v>94</v>
+        <v>3798</v>
       </c>
       <c r="D103">
         <v>4</v>
@@ -3165,7 +3060,7 @@
         <v>103</v>
       </c>
       <c r="C104">
-        <v>6000</v>
+        <v>5725</v>
       </c>
       <c r="D104">
         <v>4</v>
@@ -3179,7 +3074,7 @@
         <v>104</v>
       </c>
       <c r="C105">
-        <v>6186</v>
+        <v>7071</v>
       </c>
       <c r="D105">
         <v>4</v>
@@ -3193,7 +3088,7 @@
         <v>105</v>
       </c>
       <c r="C106">
-        <v>5627</v>
+        <v>4072</v>
       </c>
       <c r="D106">
         <v>4</v>
@@ -3207,7 +3102,7 @@
         <v>106</v>
       </c>
       <c r="C107">
-        <v>2310</v>
+        <v>94</v>
       </c>
       <c r="D107">
         <v>4</v>
@@ -3221,7 +3116,7 @@
         <v>107</v>
       </c>
       <c r="C108">
-        <v>3798</v>
+        <v>6618</v>
       </c>
       <c r="D108">
         <v>4</v>
@@ -3235,7 +3130,7 @@
         <v>108</v>
       </c>
       <c r="C109">
-        <v>94</v>
+        <v>8772</v>
       </c>
       <c r="D109">
         <v>4</v>
@@ -3249,7 +3144,7 @@
         <v>109</v>
       </c>
       <c r="C110">
-        <v>7071</v>
+        <v>5415</v>
       </c>
       <c r="D110">
         <v>4</v>
@@ -3263,7 +3158,7 @@
         <v>110</v>
       </c>
       <c r="C111">
-        <v>6618</v>
+        <v>6186</v>
       </c>
       <c r="D111">
         <v>4</v>
@@ -3277,7 +3172,7 @@
         <v>111</v>
       </c>
       <c r="C112">
-        <v>7641</v>
+        <v>6865</v>
       </c>
       <c r="D112">
         <v>4</v>
@@ -3291,7 +3186,7 @@
         <v>112</v>
       </c>
       <c r="C113">
-        <v>5725</v>
+        <v>5627</v>
       </c>
       <c r="D113">
         <v>4</v>
@@ -3305,10 +3200,10 @@
         <v>113</v>
       </c>
       <c r="C114">
-        <v>10083</v>
+        <v>6794</v>
       </c>
       <c r="D114">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3319,10 +3214,10 @@
         <v>114</v>
       </c>
       <c r="C115">
-        <v>4072</v>
+        <v>3798</v>
       </c>
       <c r="D115">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3333,10 +3228,10 @@
         <v>115</v>
       </c>
       <c r="C116">
-        <v>5415</v>
+        <v>3310</v>
       </c>
       <c r="D116">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3347,10 +3242,10 @@
         <v>116</v>
       </c>
       <c r="C117">
-        <v>6865</v>
+        <v>4975</v>
       </c>
       <c r="D117">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3361,7 +3256,7 @@
         <v>117</v>
       </c>
       <c r="C118">
-        <v>5142</v>
+        <v>6664</v>
       </c>
       <c r="D118">
         <v>3</v>
@@ -3375,7 +3270,7 @@
         <v>118</v>
       </c>
       <c r="C119">
-        <v>8772</v>
+        <v>9483</v>
       </c>
       <c r="D119">
         <v>3</v>
@@ -3403,7 +3298,7 @@
         <v>120</v>
       </c>
       <c r="C121">
-        <v>4951</v>
+        <v>6111</v>
       </c>
       <c r="D121">
         <v>3</v>
@@ -3417,7 +3312,7 @@
         <v>121</v>
       </c>
       <c r="C122">
-        <v>4975</v>
+        <v>5135</v>
       </c>
       <c r="D122">
         <v>3</v>
@@ -3431,7 +3326,7 @@
         <v>122</v>
       </c>
       <c r="C123">
-        <v>2151</v>
+        <v>11716</v>
       </c>
       <c r="D123">
         <v>3</v>
@@ -3445,7 +3340,7 @@
         <v>123</v>
       </c>
       <c r="C124">
-        <v>2004</v>
+        <v>5343</v>
       </c>
       <c r="D124">
         <v>3</v>
@@ -3473,7 +3368,7 @@
         <v>125</v>
       </c>
       <c r="C126">
-        <v>2616</v>
+        <v>3909</v>
       </c>
       <c r="D126">
         <v>3</v>
@@ -3487,7 +3382,7 @@
         <v>126</v>
       </c>
       <c r="C127">
-        <v>9222</v>
+        <v>5142</v>
       </c>
       <c r="D127">
         <v>3</v>
@@ -3501,7 +3396,7 @@
         <v>127</v>
       </c>
       <c r="C128">
-        <v>4965</v>
+        <v>2151</v>
       </c>
       <c r="D128">
         <v>3</v>
@@ -3515,7 +3410,7 @@
         <v>128</v>
       </c>
       <c r="C129">
-        <v>9222</v>
+        <v>4951</v>
       </c>
       <c r="D129">
         <v>3</v>
@@ -3529,7 +3424,7 @@
         <v>129</v>
       </c>
       <c r="C130">
-        <v>3909</v>
+        <v>5901</v>
       </c>
       <c r="D130">
         <v>3</v>
@@ -3543,7 +3438,7 @@
         <v>130</v>
       </c>
       <c r="C131">
-        <v>9483</v>
+        <v>9767</v>
       </c>
       <c r="D131">
         <v>3</v>
@@ -3557,7 +3452,7 @@
         <v>131</v>
       </c>
       <c r="C132">
-        <v>6794</v>
+        <v>2616</v>
       </c>
       <c r="D132">
         <v>3</v>
@@ -3571,7 +3466,7 @@
         <v>132</v>
       </c>
       <c r="C133">
-        <v>6330</v>
+        <v>15719</v>
       </c>
       <c r="D133">
         <v>3</v>
@@ -3585,7 +3480,7 @@
         <v>133</v>
       </c>
       <c r="C134">
-        <v>2222</v>
+        <v>4911</v>
       </c>
       <c r="D134">
         <v>3</v>
@@ -3599,7 +3494,7 @@
         <v>134</v>
       </c>
       <c r="C135">
-        <v>6664</v>
+        <v>2222</v>
       </c>
       <c r="D135">
         <v>3</v>
@@ -3613,7 +3508,7 @@
         <v>135</v>
       </c>
       <c r="C136">
-        <v>5901</v>
+        <v>6330</v>
       </c>
       <c r="D136">
         <v>3</v>
@@ -3627,7 +3522,7 @@
         <v>136</v>
       </c>
       <c r="C137">
-        <v>3798</v>
+        <v>6205</v>
       </c>
       <c r="D137">
         <v>3</v>
@@ -3641,7 +3536,7 @@
         <v>137</v>
       </c>
       <c r="C138">
-        <v>5343</v>
+        <v>2004</v>
       </c>
       <c r="D138">
         <v>3</v>
@@ -3655,7 +3550,7 @@
         <v>138</v>
       </c>
       <c r="C139">
-        <v>15719</v>
+        <v>4965</v>
       </c>
       <c r="D139">
         <v>3</v>
@@ -3669,10 +3564,10 @@
         <v>139</v>
       </c>
       <c r="C140">
-        <v>3310</v>
+        <v>1578</v>
       </c>
       <c r="D140">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3683,10 +3578,10 @@
         <v>140</v>
       </c>
       <c r="C141">
-        <v>6111</v>
+        <v>2336</v>
       </c>
       <c r="D141">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3697,10 +3592,10 @@
         <v>141</v>
       </c>
       <c r="C142">
-        <v>6205</v>
+        <v>1704</v>
       </c>
       <c r="D142">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3711,10 +3606,10 @@
         <v>142</v>
       </c>
       <c r="C143">
-        <v>4911</v>
+        <v>5181</v>
       </c>
       <c r="D143">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3725,7 +3620,7 @@
         <v>143</v>
       </c>
       <c r="C144">
-        <v>1578</v>
+        <v>2968</v>
       </c>
       <c r="D144">
         <v>2</v>
@@ -3739,7 +3634,7 @@
         <v>144</v>
       </c>
       <c r="C145">
-        <v>1183</v>
+        <v>11458</v>
       </c>
       <c r="D145">
         <v>2</v>
@@ -3753,7 +3648,7 @@
         <v>145</v>
       </c>
       <c r="C146">
-        <v>1907</v>
+        <v>3750</v>
       </c>
       <c r="D146">
         <v>2</v>
@@ -3767,7 +3662,7 @@
         <v>146</v>
       </c>
       <c r="C147">
-        <v>3668</v>
+        <v>5181</v>
       </c>
       <c r="D147">
         <v>2</v>
@@ -3781,7 +3676,7 @@
         <v>147</v>
       </c>
       <c r="C148">
-        <v>11458</v>
+        <v>3159</v>
       </c>
       <c r="D148">
         <v>2</v>
@@ -3795,7 +3690,7 @@
         <v>148</v>
       </c>
       <c r="C149">
-        <v>2968</v>
+        <v>5181</v>
       </c>
       <c r="D149">
         <v>2</v>
@@ -3809,7 +3704,7 @@
         <v>149</v>
       </c>
       <c r="C150">
-        <v>2968</v>
+        <v>11458</v>
       </c>
       <c r="D150">
         <v>2</v>
@@ -3823,7 +3718,7 @@
         <v>150</v>
       </c>
       <c r="C151">
-        <v>3048</v>
+        <v>2294</v>
       </c>
       <c r="D151">
         <v>2</v>
@@ -3837,7 +3732,7 @@
         <v>151</v>
       </c>
       <c r="C152">
-        <v>5181</v>
+        <v>3298</v>
       </c>
       <c r="D152">
         <v>2</v>
@@ -3851,7 +3746,7 @@
         <v>152</v>
       </c>
       <c r="C153">
-        <v>2782</v>
+        <v>1844</v>
       </c>
       <c r="D153">
         <v>2</v>
@@ -3865,7 +3760,7 @@
         <v>153</v>
       </c>
       <c r="C154">
-        <v>1827</v>
+        <v>3245</v>
       </c>
       <c r="D154">
         <v>2</v>
@@ -3879,7 +3774,7 @@
         <v>154</v>
       </c>
       <c r="C155">
-        <v>3033</v>
+        <v>1997</v>
       </c>
       <c r="D155">
         <v>2</v>
@@ -3893,7 +3788,7 @@
         <v>155</v>
       </c>
       <c r="C156">
-        <v>4826</v>
+        <v>11458</v>
       </c>
       <c r="D156">
         <v>2</v>
@@ -3907,7 +3802,7 @@
         <v>156</v>
       </c>
       <c r="C157">
-        <v>3518</v>
+        <v>3474</v>
       </c>
       <c r="D157">
         <v>2</v>
@@ -3921,7 +3816,7 @@
         <v>157</v>
       </c>
       <c r="C158">
-        <v>1844</v>
+        <v>11458</v>
       </c>
       <c r="D158">
         <v>2</v>
@@ -3935,7 +3830,7 @@
         <v>158</v>
       </c>
       <c r="C159">
-        <v>2336</v>
+        <v>3394</v>
       </c>
       <c r="D159">
         <v>2</v>
@@ -3949,7 +3844,7 @@
         <v>159</v>
       </c>
       <c r="C160">
-        <v>3245</v>
+        <v>3547</v>
       </c>
       <c r="D160">
         <v>2</v>
@@ -3977,7 +3872,7 @@
         <v>161</v>
       </c>
       <c r="C162">
-        <v>6764</v>
+        <v>4271</v>
       </c>
       <c r="D162">
         <v>2</v>
@@ -3991,7 +3886,7 @@
         <v>162</v>
       </c>
       <c r="C163">
-        <v>1990</v>
+        <v>4002</v>
       </c>
       <c r="D163">
         <v>2</v>
@@ -4005,7 +3900,7 @@
         <v>163</v>
       </c>
       <c r="C164">
-        <v>5181</v>
+        <v>8652</v>
       </c>
       <c r="D164">
         <v>2</v>
@@ -4019,7 +3914,7 @@
         <v>164</v>
       </c>
       <c r="C165">
-        <v>2854</v>
+        <v>2797</v>
       </c>
       <c r="D165">
         <v>2</v>
@@ -4033,7 +3928,7 @@
         <v>165</v>
       </c>
       <c r="C166">
-        <v>2294</v>
+        <v>2968</v>
       </c>
       <c r="D166">
         <v>2</v>
@@ -4047,7 +3942,7 @@
         <v>166</v>
       </c>
       <c r="C167">
-        <v>1997</v>
+        <v>5181</v>
       </c>
       <c r="D167">
         <v>2</v>
@@ -4061,7 +3956,7 @@
         <v>167</v>
       </c>
       <c r="C168">
-        <v>3668</v>
+        <v>3518</v>
       </c>
       <c r="D168">
         <v>2</v>
@@ -4075,7 +3970,7 @@
         <v>168</v>
       </c>
       <c r="C169">
-        <v>3159</v>
+        <v>11458</v>
       </c>
       <c r="D169">
         <v>2</v>
@@ -4089,7 +3984,7 @@
         <v>169</v>
       </c>
       <c r="C170">
-        <v>11458</v>
+        <v>4242</v>
       </c>
       <c r="D170">
         <v>2</v>
@@ -4103,7 +3998,7 @@
         <v>170</v>
       </c>
       <c r="C171">
-        <v>4271</v>
+        <v>2046</v>
       </c>
       <c r="D171">
         <v>2</v>
@@ -4117,7 +4012,7 @@
         <v>171</v>
       </c>
       <c r="C172">
-        <v>11458</v>
+        <v>3375</v>
       </c>
       <c r="D172">
         <v>2</v>
@@ -4131,7 +4026,7 @@
         <v>172</v>
       </c>
       <c r="C173">
-        <v>4002</v>
+        <v>2114</v>
       </c>
       <c r="D173">
         <v>2</v>
@@ -4145,7 +4040,7 @@
         <v>173</v>
       </c>
       <c r="C174">
-        <v>3474</v>
+        <v>4843</v>
       </c>
       <c r="D174">
         <v>2</v>
@@ -4159,7 +4054,7 @@
         <v>174</v>
       </c>
       <c r="C175">
-        <v>4242</v>
+        <v>3668</v>
       </c>
       <c r="D175">
         <v>2</v>
@@ -4173,7 +4068,7 @@
         <v>175</v>
       </c>
       <c r="C176">
-        <v>4202</v>
+        <v>2384</v>
       </c>
       <c r="D176">
         <v>2</v>
@@ -4187,7 +4082,7 @@
         <v>176</v>
       </c>
       <c r="C177">
-        <v>1149</v>
+        <v>3807</v>
       </c>
       <c r="D177">
         <v>2</v>
@@ -4201,7 +4096,7 @@
         <v>177</v>
       </c>
       <c r="C178">
-        <v>3547</v>
+        <v>3033</v>
       </c>
       <c r="D178">
         <v>2</v>
@@ -4215,7 +4110,7 @@
         <v>178</v>
       </c>
       <c r="C179">
-        <v>5181</v>
+        <v>6144</v>
       </c>
       <c r="D179">
         <v>2</v>
@@ -4229,7 +4124,7 @@
         <v>179</v>
       </c>
       <c r="C180">
-        <v>2046</v>
+        <v>3033</v>
       </c>
       <c r="D180">
         <v>2</v>
@@ -4243,7 +4138,7 @@
         <v>180</v>
       </c>
       <c r="C181">
-        <v>11458</v>
+        <v>1990</v>
       </c>
       <c r="D181">
         <v>2</v>
@@ -4257,7 +4152,7 @@
         <v>181</v>
       </c>
       <c r="C182">
-        <v>8652</v>
+        <v>1220</v>
       </c>
       <c r="D182">
         <v>2</v>
@@ -4271,7 +4166,7 @@
         <v>182</v>
       </c>
       <c r="C183">
-        <v>1844</v>
+        <v>4271</v>
       </c>
       <c r="D183">
         <v>2</v>
@@ -4285,7 +4180,7 @@
         <v>183</v>
       </c>
       <c r="C184">
-        <v>7479</v>
+        <v>4843</v>
       </c>
       <c r="D184">
         <v>2</v>
@@ -4299,7 +4194,7 @@
         <v>184</v>
       </c>
       <c r="C185">
-        <v>11458</v>
+        <v>4202</v>
       </c>
       <c r="D185">
         <v>2</v>
@@ -4313,7 +4208,7 @@
         <v>185</v>
       </c>
       <c r="C186">
-        <v>3668</v>
+        <v>635</v>
       </c>
       <c r="D186">
         <v>2</v>
@@ -4327,7 +4222,7 @@
         <v>186</v>
       </c>
       <c r="C187">
-        <v>3298</v>
+        <v>2401</v>
       </c>
       <c r="D187">
         <v>2</v>
@@ -4341,7 +4236,7 @@
         <v>187</v>
       </c>
       <c r="C188">
-        <v>1704</v>
+        <v>11458</v>
       </c>
       <c r="D188">
         <v>2</v>
@@ -4355,7 +4250,7 @@
         <v>188</v>
       </c>
       <c r="C189">
-        <v>2745</v>
+        <v>2811</v>
       </c>
       <c r="D189">
         <v>2</v>
@@ -4369,7 +4264,7 @@
         <v>189</v>
       </c>
       <c r="C190">
-        <v>1006</v>
+        <v>2745</v>
       </c>
       <c r="D190">
         <v>2</v>
@@ -4383,7 +4278,7 @@
         <v>190</v>
       </c>
       <c r="C191">
-        <v>2589</v>
+        <v>6625</v>
       </c>
       <c r="D191">
         <v>2</v>
@@ -4397,7 +4292,7 @@
         <v>191</v>
       </c>
       <c r="C192">
-        <v>4271</v>
+        <v>1844</v>
       </c>
       <c r="D192">
         <v>2</v>
@@ -4411,7 +4306,7 @@
         <v>192</v>
       </c>
       <c r="C193">
-        <v>2811</v>
+        <v>3680</v>
       </c>
       <c r="D193">
         <v>2</v>
@@ -4425,7 +4320,7 @@
         <v>193</v>
       </c>
       <c r="C194">
-        <v>6625</v>
+        <v>7033</v>
       </c>
       <c r="D194">
         <v>2</v>
@@ -4439,7 +4334,7 @@
         <v>194</v>
       </c>
       <c r="C195">
-        <v>3680</v>
+        <v>2782</v>
       </c>
       <c r="D195">
         <v>2</v>
@@ -4453,7 +4348,7 @@
         <v>195</v>
       </c>
       <c r="C196">
-        <v>7525</v>
+        <v>3048</v>
       </c>
       <c r="D196">
         <v>2</v>
@@ -4467,7 +4362,7 @@
         <v>196</v>
       </c>
       <c r="C197">
-        <v>7033</v>
+        <v>7479</v>
       </c>
       <c r="D197">
         <v>2</v>
@@ -4481,7 +4376,7 @@
         <v>197</v>
       </c>
       <c r="C198">
-        <v>2114</v>
+        <v>4826</v>
       </c>
       <c r="D198">
         <v>2</v>
@@ -4495,7 +4390,7 @@
         <v>198</v>
       </c>
       <c r="C199">
-        <v>635</v>
+        <v>5443</v>
       </c>
       <c r="D199">
         <v>2</v>
@@ -4509,7 +4404,7 @@
         <v>199</v>
       </c>
       <c r="C200">
-        <v>3033</v>
+        <v>1006</v>
       </c>
       <c r="D200">
         <v>2</v>
@@ -4523,10 +4418,10 @@
         <v>200</v>
       </c>
       <c r="C201">
-        <v>2382</v>
+        <v>1838</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4537,10 +4432,10 @@
         <v>201</v>
       </c>
       <c r="C202">
-        <v>3375</v>
+        <v>1189</v>
       </c>
       <c r="D202">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4551,10 +4446,10 @@
         <v>202</v>
       </c>
       <c r="C203">
-        <v>11458</v>
+        <v>1557</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4565,10 +4460,10 @@
         <v>203</v>
       </c>
       <c r="C204">
-        <v>3750</v>
+        <v>1492</v>
       </c>
       <c r="D204">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4579,10 +4474,10 @@
         <v>204</v>
       </c>
       <c r="C205">
-        <v>6144</v>
+        <v>2431</v>
       </c>
       <c r="D205">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4593,10 +4488,10 @@
         <v>205</v>
       </c>
       <c r="C206">
-        <v>2797</v>
+        <v>1304</v>
       </c>
       <c r="D206">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4607,10 +4502,10 @@
         <v>206</v>
       </c>
       <c r="C207">
-        <v>4843</v>
+        <v>481</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4621,10 +4516,10 @@
         <v>207</v>
       </c>
       <c r="C208">
-        <v>3807</v>
+        <v>3003</v>
       </c>
       <c r="D208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4635,10 +4530,10 @@
         <v>208</v>
       </c>
       <c r="C209">
-        <v>5181</v>
+        <v>3003</v>
       </c>
       <c r="D209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4649,10 +4544,10 @@
         <v>209</v>
       </c>
       <c r="C210">
-        <v>2401</v>
+        <v>3003</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4663,10 +4558,10 @@
         <v>210</v>
       </c>
       <c r="C211">
-        <v>3394</v>
+        <v>30</v>
       </c>
       <c r="D211">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4677,10 +4572,10 @@
         <v>211</v>
       </c>
       <c r="C212">
-        <v>4843</v>
+        <v>33</v>
       </c>
       <c r="D212">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4691,10 +4586,10 @@
         <v>212</v>
       </c>
       <c r="C213">
-        <v>2384</v>
+        <v>1921</v>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4705,10 +4600,10 @@
         <v>213</v>
       </c>
       <c r="C214">
-        <v>11458</v>
+        <v>319</v>
       </c>
       <c r="D214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4719,10 +4614,10 @@
         <v>214</v>
       </c>
       <c r="C215">
-        <v>5443</v>
+        <v>776</v>
       </c>
       <c r="D215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4733,10 +4628,10 @@
         <v>215</v>
       </c>
       <c r="C216">
-        <v>1220</v>
+        <v>420</v>
       </c>
       <c r="D216">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4747,7 +4642,7 @@
         <v>216</v>
       </c>
       <c r="C217">
-        <v>2431</v>
+        <v>2483</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -4761,7 +4656,7 @@
         <v>217</v>
       </c>
       <c r="C218">
-        <v>2483</v>
+        <v>1407</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -4775,7 +4670,7 @@
         <v>218</v>
       </c>
       <c r="C219">
-        <v>147</v>
+        <v>1225</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -4789,7 +4684,7 @@
         <v>219</v>
       </c>
       <c r="C220">
-        <v>1304</v>
+        <v>319</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -4803,7 +4698,7 @@
         <v>220</v>
       </c>
       <c r="C221">
-        <v>1225</v>
+        <v>3003</v>
       </c>
       <c r="D221">
         <v>1</v>
@@ -4817,7 +4712,7 @@
         <v>221</v>
       </c>
       <c r="C222">
-        <v>3003</v>
+        <v>605</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -4831,7 +4726,7 @@
         <v>222</v>
       </c>
       <c r="C223">
-        <v>1069</v>
+        <v>909</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -4845,7 +4740,7 @@
         <v>223</v>
       </c>
       <c r="C224">
-        <v>776</v>
+        <v>258</v>
       </c>
       <c r="D224">
         <v>1</v>
@@ -4859,7 +4754,7 @@
         <v>224</v>
       </c>
       <c r="C225">
-        <v>481</v>
+        <v>605</v>
       </c>
       <c r="D225">
         <v>1</v>
@@ -4873,7 +4768,7 @@
         <v>225</v>
       </c>
       <c r="C226">
-        <v>1492</v>
+        <v>3761</v>
       </c>
       <c r="D226">
         <v>1</v>
@@ -4887,7 +4782,7 @@
         <v>226</v>
       </c>
       <c r="C227">
-        <v>1407</v>
+        <v>1649</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -4901,7 +4796,7 @@
         <v>227</v>
       </c>
       <c r="C228">
-        <v>1189</v>
+        <v>2377</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -4915,7 +4810,7 @@
         <v>228</v>
       </c>
       <c r="C229">
-        <v>1840</v>
+        <v>605</v>
       </c>
       <c r="D229">
         <v>1</v>
@@ -4929,7 +4824,7 @@
         <v>229</v>
       </c>
       <c r="C230">
-        <v>6049</v>
+        <v>1838</v>
       </c>
       <c r="D230">
         <v>1</v>
@@ -4943,7 +4838,7 @@
         <v>230</v>
       </c>
       <c r="C231">
-        <v>2730</v>
+        <v>0</v>
       </c>
       <c r="D231">
         <v>1</v>
@@ -4957,7 +4852,7 @@
         <v>231</v>
       </c>
       <c r="C232">
-        <v>1875</v>
+        <v>2431</v>
       </c>
       <c r="D232">
         <v>1</v>
@@ -4971,7 +4866,7 @@
         <v>232</v>
       </c>
       <c r="C233">
-        <v>2683</v>
+        <v>2483</v>
       </c>
       <c r="D233">
         <v>1</v>
@@ -4985,7 +4880,7 @@
         <v>233</v>
       </c>
       <c r="C234">
-        <v>605</v>
+        <v>6049</v>
       </c>
       <c r="D234">
         <v>1</v>
@@ -4999,7 +4894,7 @@
         <v>234</v>
       </c>
       <c r="C235">
-        <v>30</v>
+        <v>2219</v>
       </c>
       <c r="D235">
         <v>1</v>
@@ -5013,7 +4908,7 @@
         <v>235</v>
       </c>
       <c r="C236">
-        <v>33</v>
+        <v>687</v>
       </c>
       <c r="D236">
         <v>1</v>
@@ -5027,7 +4922,7 @@
         <v>236</v>
       </c>
       <c r="C237">
-        <v>1189</v>
+        <v>909</v>
       </c>
       <c r="D237">
         <v>1</v>
@@ -5041,7 +4936,7 @@
         <v>237</v>
       </c>
       <c r="C238">
-        <v>319</v>
+        <v>3751</v>
       </c>
       <c r="D238">
         <v>1</v>
@@ -5055,7 +4950,7 @@
         <v>238</v>
       </c>
       <c r="C239">
-        <v>1649</v>
+        <v>65</v>
       </c>
       <c r="D239">
         <v>1</v>
@@ -5069,7 +4964,7 @@
         <v>239</v>
       </c>
       <c r="C240">
-        <v>1921</v>
+        <v>1345</v>
       </c>
       <c r="D240">
         <v>1</v>
@@ -5097,7 +4992,7 @@
         <v>241</v>
       </c>
       <c r="C242">
-        <v>0</v>
+        <v>946</v>
       </c>
       <c r="D242">
         <v>1</v>
@@ -5111,7 +5006,7 @@
         <v>242</v>
       </c>
       <c r="C243">
-        <v>420</v>
+        <v>2323</v>
       </c>
       <c r="D243">
         <v>1</v>
@@ -5125,7 +5020,7 @@
         <v>243</v>
       </c>
       <c r="C244">
-        <v>3003</v>
+        <v>1875</v>
       </c>
       <c r="D244">
         <v>1</v>
@@ -5139,7 +5034,7 @@
         <v>244</v>
       </c>
       <c r="C245">
-        <v>3003</v>
+        <v>687</v>
       </c>
       <c r="D245">
         <v>1</v>
@@ -5153,7 +5048,7 @@
         <v>245</v>
       </c>
       <c r="C246">
-        <v>1189</v>
+        <v>1649</v>
       </c>
       <c r="D246">
         <v>1</v>
@@ -5167,7 +5062,7 @@
         <v>246</v>
       </c>
       <c r="C247">
-        <v>2219</v>
+        <v>8744</v>
       </c>
       <c r="D247">
         <v>1</v>
@@ -5181,7 +5076,7 @@
         <v>247</v>
       </c>
       <c r="C248">
-        <v>2683</v>
+        <v>0</v>
       </c>
       <c r="D248">
         <v>1</v>
@@ -5195,7 +5090,7 @@
         <v>248</v>
       </c>
       <c r="C249">
-        <v>2683</v>
+        <v>1189</v>
       </c>
       <c r="D249">
         <v>1</v>
@@ -5209,7 +5104,7 @@
         <v>249</v>
       </c>
       <c r="C250">
-        <v>258</v>
+        <v>578</v>
       </c>
       <c r="D250">
         <v>1</v>
@@ -5237,7 +5132,7 @@
         <v>251</v>
       </c>
       <c r="C252">
-        <v>1209</v>
+        <v>1557</v>
       </c>
       <c r="D252">
         <v>1</v>
@@ -5251,7 +5146,7 @@
         <v>252</v>
       </c>
       <c r="C253">
-        <v>3003</v>
+        <v>481</v>
       </c>
       <c r="D253">
         <v>1</v>
@@ -5265,7 +5160,7 @@
         <v>253</v>
       </c>
       <c r="C254">
-        <v>258</v>
+        <v>5554</v>
       </c>
       <c r="D254">
         <v>1</v>
@@ -5279,7 +5174,7 @@
         <v>254</v>
       </c>
       <c r="C255">
-        <v>2323</v>
+        <v>1189</v>
       </c>
       <c r="D255">
         <v>1</v>
@@ -5293,7 +5188,7 @@
         <v>255</v>
       </c>
       <c r="C256">
-        <v>2431</v>
+        <v>3003</v>
       </c>
       <c r="D256">
         <v>1</v>
@@ -5307,7 +5202,7 @@
         <v>256</v>
       </c>
       <c r="C257">
-        <v>1097</v>
+        <v>2730</v>
       </c>
       <c r="D257">
         <v>1</v>
@@ -5321,7 +5216,7 @@
         <v>257</v>
       </c>
       <c r="C258">
-        <v>1105</v>
+        <v>853</v>
       </c>
       <c r="D258">
         <v>1</v>
@@ -5335,7 +5230,7 @@
         <v>258</v>
       </c>
       <c r="C259">
-        <v>1319</v>
+        <v>358</v>
       </c>
       <c r="D259">
         <v>1</v>
@@ -5349,7 +5244,7 @@
         <v>259</v>
       </c>
       <c r="C260">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="D260">
         <v>1</v>
@@ -5363,7 +5258,7 @@
         <v>260</v>
       </c>
       <c r="C261">
-        <v>8744</v>
+        <v>5825</v>
       </c>
       <c r="D261">
         <v>1</v>
@@ -5377,7 +5272,7 @@
         <v>261</v>
       </c>
       <c r="C262">
-        <v>1649</v>
+        <v>605</v>
       </c>
       <c r="D262">
         <v>1</v>
@@ -5391,7 +5286,7 @@
         <v>262</v>
       </c>
       <c r="C263">
-        <v>605</v>
+        <v>1189</v>
       </c>
       <c r="D263">
         <v>1</v>
@@ -5405,7 +5300,7 @@
         <v>263</v>
       </c>
       <c r="C264">
-        <v>909</v>
+        <v>1557</v>
       </c>
       <c r="D264">
         <v>1</v>
@@ -5419,7 +5314,7 @@
         <v>264</v>
       </c>
       <c r="C265">
-        <v>258</v>
+        <v>2683</v>
       </c>
       <c r="D265">
         <v>1</v>
@@ -5433,7 +5328,7 @@
         <v>265</v>
       </c>
       <c r="C266">
-        <v>605</v>
+        <v>2683</v>
       </c>
       <c r="D266">
         <v>1</v>
@@ -5447,7 +5342,7 @@
         <v>266</v>
       </c>
       <c r="C267">
-        <v>3761</v>
+        <v>258</v>
       </c>
       <c r="D267">
         <v>1</v>
@@ -5461,7 +5356,7 @@
         <v>267</v>
       </c>
       <c r="C268">
-        <v>2377</v>
+        <v>1209</v>
       </c>
       <c r="D268">
         <v>1</v>
@@ -5475,7 +5370,7 @@
         <v>268</v>
       </c>
       <c r="C269">
-        <v>1838</v>
+        <v>147</v>
       </c>
       <c r="D269">
         <v>1</v>
@@ -5489,7 +5384,7 @@
         <v>269</v>
       </c>
       <c r="C270">
-        <v>1557</v>
+        <v>2323</v>
       </c>
       <c r="D270">
         <v>1</v>
@@ -5503,7 +5398,7 @@
         <v>270</v>
       </c>
       <c r="C271">
-        <v>605</v>
+        <v>1097</v>
       </c>
       <c r="D271">
         <v>1</v>
@@ -5517,7 +5412,7 @@
         <v>271</v>
       </c>
       <c r="C272">
-        <v>1557</v>
+        <v>1319</v>
       </c>
       <c r="D272">
         <v>1</v>
@@ -5531,7 +5426,7 @@
         <v>272</v>
       </c>
       <c r="C273">
-        <v>5825</v>
+        <v>1875</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -5545,7 +5440,7 @@
         <v>273</v>
       </c>
       <c r="C274">
-        <v>687</v>
+        <v>6072</v>
       </c>
       <c r="D274">
         <v>1</v>
@@ -5559,7 +5454,7 @@
         <v>274</v>
       </c>
       <c r="C275">
-        <v>1838</v>
+        <v>856</v>
       </c>
       <c r="D275">
         <v>1</v>
@@ -5573,7 +5468,7 @@
         <v>275</v>
       </c>
       <c r="C276">
-        <v>319</v>
+        <v>2323</v>
       </c>
       <c r="D276">
         <v>1</v>
@@ -5587,7 +5482,7 @@
         <v>276</v>
       </c>
       <c r="C277">
-        <v>1875</v>
+        <v>1697</v>
       </c>
       <c r="D277">
         <v>1</v>
@@ -5601,7 +5496,7 @@
         <v>277</v>
       </c>
       <c r="C278">
-        <v>578</v>
+        <v>1192</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -5615,7 +5510,7 @@
         <v>278</v>
       </c>
       <c r="C279">
-        <v>2483</v>
+        <v>1856</v>
       </c>
       <c r="D279">
         <v>1</v>
@@ -5629,7 +5524,7 @@
         <v>279</v>
       </c>
       <c r="C280">
-        <v>2323</v>
+        <v>1492</v>
       </c>
       <c r="D280">
         <v>1</v>
@@ -5643,7 +5538,7 @@
         <v>280</v>
       </c>
       <c r="C281">
-        <v>1557</v>
+        <v>1649</v>
       </c>
       <c r="D281">
         <v>1</v>
@@ -5657,7 +5552,7 @@
         <v>281</v>
       </c>
       <c r="C282">
-        <v>2281</v>
+        <v>481</v>
       </c>
       <c r="D282">
         <v>1</v>
@@ -5671,7 +5566,7 @@
         <v>282</v>
       </c>
       <c r="C283">
-        <v>481</v>
+        <v>853</v>
       </c>
       <c r="D283">
         <v>1</v>
@@ -5685,7 +5580,7 @@
         <v>283</v>
       </c>
       <c r="C284">
-        <v>5554</v>
+        <v>3751</v>
       </c>
       <c r="D284">
         <v>1</v>
@@ -5699,7 +5594,7 @@
         <v>284</v>
       </c>
       <c r="C285">
-        <v>1189</v>
+        <v>1838</v>
       </c>
       <c r="D285">
         <v>1</v>
@@ -5713,7 +5608,7 @@
         <v>285</v>
       </c>
       <c r="C286">
-        <v>3003</v>
+        <v>319</v>
       </c>
       <c r="D286">
         <v>1</v>
@@ -5727,7 +5622,7 @@
         <v>286</v>
       </c>
       <c r="C287">
-        <v>946</v>
+        <v>1525</v>
       </c>
       <c r="D287">
         <v>1</v>
@@ -5741,7 +5636,7 @@
         <v>287</v>
       </c>
       <c r="C288">
-        <v>3003</v>
+        <v>1209</v>
       </c>
       <c r="D288">
         <v>1</v>
@@ -5755,7 +5650,7 @@
         <v>288</v>
       </c>
       <c r="C289">
-        <v>1345</v>
+        <v>1285</v>
       </c>
       <c r="D289">
         <v>1</v>
@@ -5769,7 +5664,7 @@
         <v>289</v>
       </c>
       <c r="C290">
-        <v>853</v>
+        <v>687</v>
       </c>
       <c r="D290">
         <v>1</v>
@@ -5783,7 +5678,7 @@
         <v>290</v>
       </c>
       <c r="C291">
-        <v>358</v>
+        <v>1875</v>
       </c>
       <c r="D291">
         <v>1</v>
@@ -5797,7 +5692,7 @@
         <v>291</v>
       </c>
       <c r="C292">
-        <v>3751</v>
+        <v>1921</v>
       </c>
       <c r="D292">
         <v>1</v>
@@ -5811,7 +5706,7 @@
         <v>292</v>
       </c>
       <c r="C293">
-        <v>687</v>
+        <v>1304</v>
       </c>
       <c r="D293">
         <v>1</v>
@@ -5825,7 +5720,7 @@
         <v>293</v>
       </c>
       <c r="C294">
-        <v>909</v>
+        <v>852</v>
       </c>
       <c r="D294">
         <v>1</v>
@@ -5839,7 +5734,7 @@
         <v>294</v>
       </c>
       <c r="C295">
-        <v>687</v>
+        <v>0</v>
       </c>
       <c r="D295">
         <v>1</v>
@@ -5853,7 +5748,7 @@
         <v>295</v>
       </c>
       <c r="C296">
-        <v>3028</v>
+        <v>1225</v>
       </c>
       <c r="D296">
         <v>1</v>
@@ -5867,7 +5762,7 @@
         <v>296</v>
       </c>
       <c r="C297">
-        <v>65</v>
+        <v>3601</v>
       </c>
       <c r="D297">
         <v>1</v>
@@ -5881,7 +5776,7 @@
         <v>297</v>
       </c>
       <c r="C298">
-        <v>3003</v>
+        <v>258</v>
       </c>
       <c r="D298">
         <v>1</v>
@@ -5895,7 +5790,7 @@
         <v>298</v>
       </c>
       <c r="C299">
-        <v>1345</v>
+        <v>481</v>
       </c>
       <c r="D299">
         <v>1</v>
@@ -5909,7 +5804,7 @@
         <v>299</v>
       </c>
       <c r="C300">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D300">
         <v>1</v>
@@ -5923,7 +5818,7 @@
         <v>300</v>
       </c>
       <c r="C301">
-        <v>1697</v>
+        <v>605</v>
       </c>
       <c r="D301">
         <v>1</v>
@@ -5937,7 +5832,7 @@
         <v>301</v>
       </c>
       <c r="C302">
-        <v>1192</v>
+        <v>1071</v>
       </c>
       <c r="D302">
         <v>1</v>
@@ -5951,7 +5846,7 @@
         <v>302</v>
       </c>
       <c r="C303">
-        <v>1856</v>
+        <v>2710</v>
       </c>
       <c r="D303">
         <v>1</v>
@@ -5965,7 +5860,7 @@
         <v>303</v>
       </c>
       <c r="C304">
-        <v>1492</v>
+        <v>1319</v>
       </c>
       <c r="D304">
         <v>1</v>
@@ -5979,7 +5874,7 @@
         <v>304</v>
       </c>
       <c r="C305">
-        <v>1649</v>
+        <v>1304</v>
       </c>
       <c r="D305">
         <v>1</v>
@@ -5993,7 +5888,7 @@
         <v>305</v>
       </c>
       <c r="C306">
-        <v>481</v>
+        <v>2778</v>
       </c>
       <c r="D306">
         <v>1</v>
@@ -6007,7 +5902,7 @@
         <v>306</v>
       </c>
       <c r="C307">
-        <v>2323</v>
+        <v>2219</v>
       </c>
       <c r="D307">
         <v>1</v>
@@ -6021,7 +5916,7 @@
         <v>307</v>
       </c>
       <c r="C308">
-        <v>853</v>
+        <v>1492</v>
       </c>
       <c r="D308">
         <v>1</v>
@@ -6035,7 +5930,7 @@
         <v>308</v>
       </c>
       <c r="C309">
-        <v>856</v>
+        <v>5825</v>
       </c>
       <c r="D309">
         <v>1</v>
@@ -6049,7 +5944,7 @@
         <v>309</v>
       </c>
       <c r="C310">
-        <v>1838</v>
+        <v>2710</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -6063,7 +5958,7 @@
         <v>310</v>
       </c>
       <c r="C311">
-        <v>1097</v>
+        <v>1189</v>
       </c>
       <c r="D311">
         <v>1</v>
@@ -6077,7 +5972,7 @@
         <v>311</v>
       </c>
       <c r="C312">
-        <v>319</v>
+        <v>258</v>
       </c>
       <c r="D312">
         <v>1</v>
@@ -6091,7 +5986,7 @@
         <v>312</v>
       </c>
       <c r="C313">
-        <v>1525</v>
+        <v>909</v>
       </c>
       <c r="D313">
         <v>1</v>
@@ -6105,7 +6000,7 @@
         <v>313</v>
       </c>
       <c r="C314">
-        <v>1209</v>
+        <v>1097</v>
       </c>
       <c r="D314">
         <v>1</v>
@@ -6119,7 +6014,7 @@
         <v>314</v>
       </c>
       <c r="C315">
-        <v>1285</v>
+        <v>1525</v>
       </c>
       <c r="D315">
         <v>1</v>
@@ -6133,7 +6028,7 @@
         <v>315</v>
       </c>
       <c r="C316">
-        <v>687</v>
+        <v>2683</v>
       </c>
       <c r="D316">
         <v>1</v>
@@ -6147,7 +6042,7 @@
         <v>316</v>
       </c>
       <c r="C317">
-        <v>1875</v>
+        <v>1525</v>
       </c>
       <c r="D317">
         <v>1</v>
@@ -6161,7 +6056,7 @@
         <v>317</v>
       </c>
       <c r="C318">
-        <v>3751</v>
+        <v>1525</v>
       </c>
       <c r="D318">
         <v>1</v>
@@ -6175,7 +6070,7 @@
         <v>318</v>
       </c>
       <c r="C319">
-        <v>1921</v>
+        <v>1697</v>
       </c>
       <c r="D319">
         <v>1</v>
@@ -6189,7 +6084,7 @@
         <v>319</v>
       </c>
       <c r="C320">
-        <v>1071</v>
+        <v>2323</v>
       </c>
       <c r="D320">
         <v>1</v>
@@ -6203,7 +6098,7 @@
         <v>320</v>
       </c>
       <c r="C321">
-        <v>0</v>
+        <v>2730</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -6217,7 +6112,7 @@
         <v>321</v>
       </c>
       <c r="C322">
-        <v>1225</v>
+        <v>1145</v>
       </c>
       <c r="D322">
         <v>1</v>
@@ -6231,7 +6126,7 @@
         <v>322</v>
       </c>
       <c r="C323">
-        <v>3601</v>
+        <v>1051</v>
       </c>
       <c r="D323">
         <v>1</v>
@@ -6245,7 +6140,7 @@
         <v>323</v>
       </c>
       <c r="C324">
-        <v>1428</v>
+        <v>481</v>
       </c>
       <c r="D324">
         <v>1</v>
@@ -6259,7 +6154,7 @@
         <v>324</v>
       </c>
       <c r="C325">
-        <v>258</v>
+        <v>358</v>
       </c>
       <c r="D325">
         <v>1</v>
@@ -6273,7 +6168,7 @@
         <v>325</v>
       </c>
       <c r="C326">
-        <v>481</v>
+        <v>605</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -6287,7 +6182,7 @@
         <v>326</v>
       </c>
       <c r="C327">
-        <v>0</v>
+        <v>742</v>
       </c>
       <c r="D327">
         <v>1</v>
@@ -6301,7 +6196,7 @@
         <v>327</v>
       </c>
       <c r="C328">
-        <v>852</v>
+        <v>2707</v>
       </c>
       <c r="D328">
         <v>1</v>
@@ -6315,7 +6210,7 @@
         <v>328</v>
       </c>
       <c r="C329">
-        <v>605</v>
+        <v>1285</v>
       </c>
       <c r="D329">
         <v>1</v>
@@ -6329,7 +6224,7 @@
         <v>329</v>
       </c>
       <c r="C330">
-        <v>2710</v>
+        <v>605</v>
       </c>
       <c r="D330">
         <v>1</v>
@@ -6343,7 +6238,7 @@
         <v>330</v>
       </c>
       <c r="C331">
-        <v>1319</v>
+        <v>1149</v>
       </c>
       <c r="D331">
         <v>1</v>
@@ -6357,7 +6252,7 @@
         <v>331</v>
       </c>
       <c r="C332">
-        <v>1304</v>
+        <v>1149</v>
       </c>
       <c r="D332">
         <v>1</v>
@@ -6371,7 +6266,7 @@
         <v>332</v>
       </c>
       <c r="C333">
-        <v>2778</v>
+        <v>3098</v>
       </c>
       <c r="D333">
         <v>1</v>
@@ -6385,7 +6280,7 @@
         <v>333</v>
       </c>
       <c r="C334">
-        <v>2219</v>
+        <v>2683</v>
       </c>
       <c r="D334">
         <v>1</v>
@@ -6399,7 +6294,7 @@
         <v>334</v>
       </c>
       <c r="C335">
-        <v>1492</v>
+        <v>420</v>
       </c>
       <c r="D335">
         <v>1</v>
@@ -6413,7 +6308,7 @@
         <v>335</v>
       </c>
       <c r="C336">
-        <v>5825</v>
+        <v>1453</v>
       </c>
       <c r="D336">
         <v>1</v>
@@ -6427,7 +6322,7 @@
         <v>336</v>
       </c>
       <c r="C337">
-        <v>2710</v>
+        <v>2483</v>
       </c>
       <c r="D337">
         <v>1</v>
@@ -6441,7 +6336,7 @@
         <v>337</v>
       </c>
       <c r="C338">
-        <v>1189</v>
+        <v>258</v>
       </c>
       <c r="D338">
         <v>1</v>
@@ -6455,7 +6350,7 @@
         <v>338</v>
       </c>
       <c r="C339">
-        <v>1285</v>
+        <v>420</v>
       </c>
       <c r="D339">
         <v>1</v>
@@ -6469,7 +6364,7 @@
         <v>339</v>
       </c>
       <c r="C340">
-        <v>742</v>
+        <v>0</v>
       </c>
       <c r="D340">
         <v>1</v>
@@ -6483,7 +6378,7 @@
         <v>340</v>
       </c>
       <c r="C341">
-        <v>909</v>
+        <v>853</v>
       </c>
       <c r="D341">
         <v>1</v>
@@ -6497,7 +6392,7 @@
         <v>341</v>
       </c>
       <c r="C342">
-        <v>1097</v>
+        <v>940</v>
       </c>
       <c r="D342">
         <v>1</v>
@@ -6511,7 +6406,7 @@
         <v>342</v>
       </c>
       <c r="C343">
-        <v>1525</v>
+        <v>2323</v>
       </c>
       <c r="D343">
         <v>1</v>
@@ -6525,7 +6420,7 @@
         <v>343</v>
       </c>
       <c r="C344">
-        <v>2683</v>
+        <v>1266</v>
       </c>
       <c r="D344">
         <v>1</v>
@@ -6539,7 +6434,7 @@
         <v>344</v>
       </c>
       <c r="C345">
-        <v>1525</v>
+        <v>0</v>
       </c>
       <c r="D345">
         <v>1</v>
@@ -6553,7 +6448,7 @@
         <v>345</v>
       </c>
       <c r="C346">
-        <v>1525</v>
+        <v>1697</v>
       </c>
       <c r="D346">
         <v>1</v>
@@ -6567,7 +6462,7 @@
         <v>346</v>
       </c>
       <c r="C347">
-        <v>258</v>
+        <v>2219</v>
       </c>
       <c r="D347">
         <v>1</v>
@@ -6581,7 +6476,7 @@
         <v>347</v>
       </c>
       <c r="C348">
-        <v>1697</v>
+        <v>1116</v>
       </c>
       <c r="D348">
         <v>1</v>
@@ -6595,7 +6490,7 @@
         <v>348</v>
       </c>
       <c r="C349">
-        <v>2730</v>
+        <v>258</v>
       </c>
       <c r="D349">
         <v>1</v>
@@ -6609,7 +6504,7 @@
         <v>349</v>
       </c>
       <c r="C350">
-        <v>1145</v>
+        <v>147</v>
       </c>
       <c r="D350">
         <v>1</v>
@@ -6623,7 +6518,7 @@
         <v>350</v>
       </c>
       <c r="C351">
-        <v>1051</v>
+        <v>605</v>
       </c>
       <c r="D351">
         <v>1</v>
@@ -6637,7 +6532,7 @@
         <v>351</v>
       </c>
       <c r="C352">
-        <v>481</v>
+        <v>1192</v>
       </c>
       <c r="D352">
         <v>1</v>
@@ -6651,7 +6546,7 @@
         <v>352</v>
       </c>
       <c r="C353">
-        <v>358</v>
+        <v>1492</v>
       </c>
       <c r="D353">
         <v>1</v>
@@ -6665,7 +6560,7 @@
         <v>353</v>
       </c>
       <c r="C354">
-        <v>605</v>
+        <v>808</v>
       </c>
       <c r="D354">
         <v>1</v>
@@ -6679,7 +6574,7 @@
         <v>354</v>
       </c>
       <c r="C355">
-        <v>2707</v>
+        <v>5825</v>
       </c>
       <c r="D355">
         <v>1</v>
@@ -6693,7 +6588,7 @@
         <v>355</v>
       </c>
       <c r="C356">
-        <v>1649</v>
+        <v>1319</v>
       </c>
       <c r="D356">
         <v>1</v>
@@ -6707,7 +6602,7 @@
         <v>356</v>
       </c>
       <c r="C357">
-        <v>2323</v>
+        <v>3751</v>
       </c>
       <c r="D357">
         <v>1</v>
@@ -6721,7 +6616,7 @@
         <v>357</v>
       </c>
       <c r="C358">
-        <v>605</v>
+        <v>258</v>
       </c>
       <c r="D358">
         <v>1</v>
@@ -6735,7 +6630,7 @@
         <v>358</v>
       </c>
       <c r="C359">
-        <v>2323</v>
+        <v>3761</v>
       </c>
       <c r="D359">
         <v>1</v>
@@ -6749,7 +6644,7 @@
         <v>359</v>
       </c>
       <c r="C360">
-        <v>940</v>
+        <v>853</v>
       </c>
       <c r="D360">
         <v>1</v>
@@ -6763,7 +6658,7 @@
         <v>360</v>
       </c>
       <c r="C361">
-        <v>853</v>
+        <v>3003</v>
       </c>
       <c r="D361">
         <v>1</v>
@@ -6777,7 +6672,7 @@
         <v>361</v>
       </c>
       <c r="C362">
-        <v>358</v>
+        <v>1149</v>
       </c>
       <c r="D362">
         <v>1</v>
@@ -6791,7 +6686,7 @@
         <v>362</v>
       </c>
       <c r="C363">
-        <v>0</v>
+        <v>1209</v>
       </c>
       <c r="D363">
         <v>1</v>
@@ -6805,7 +6700,7 @@
         <v>363</v>
       </c>
       <c r="C364">
-        <v>420</v>
+        <v>5554</v>
       </c>
       <c r="D364">
         <v>1</v>
@@ -6819,7 +6714,7 @@
         <v>364</v>
       </c>
       <c r="C365">
-        <v>258</v>
+        <v>610</v>
       </c>
       <c r="D365">
         <v>1</v>
@@ -6833,7 +6728,7 @@
         <v>365</v>
       </c>
       <c r="C366">
-        <v>2483</v>
+        <v>2189</v>
       </c>
       <c r="D366">
         <v>1</v>
@@ -6847,7 +6742,7 @@
         <v>366</v>
       </c>
       <c r="C367">
-        <v>1453</v>
+        <v>2683</v>
       </c>
       <c r="D367">
         <v>1</v>
@@ -6861,7 +6756,7 @@
         <v>367</v>
       </c>
       <c r="C368">
-        <v>420</v>
+        <v>3098</v>
       </c>
       <c r="D368">
         <v>1</v>
@@ -6889,7 +6784,7 @@
         <v>369</v>
       </c>
       <c r="C370">
-        <v>3098</v>
+        <v>1838</v>
       </c>
       <c r="D370">
         <v>1</v>
@@ -6903,7 +6798,7 @@
         <v>370</v>
       </c>
       <c r="C371">
-        <v>1149</v>
+        <v>147</v>
       </c>
       <c r="D371">
         <v>1</v>
@@ -6917,7 +6812,7 @@
         <v>371</v>
       </c>
       <c r="C372">
-        <v>2710</v>
+        <v>1856</v>
       </c>
       <c r="D372">
         <v>1</v>
@@ -6931,7 +6826,7 @@
         <v>372</v>
       </c>
       <c r="C373">
-        <v>1149</v>
+        <v>481</v>
       </c>
       <c r="D373">
         <v>1</v>
@@ -6945,7 +6840,7 @@
         <v>373</v>
       </c>
       <c r="C374">
-        <v>1266</v>
+        <v>1896</v>
       </c>
       <c r="D374">
         <v>1</v>
@@ -6959,7 +6854,7 @@
         <v>374</v>
       </c>
       <c r="C375">
-        <v>1304</v>
+        <v>358</v>
       </c>
       <c r="D375">
         <v>1</v>
@@ -6973,7 +6868,7 @@
         <v>375</v>
       </c>
       <c r="C376">
-        <v>0</v>
+        <v>2323</v>
       </c>
       <c r="D376">
         <v>1</v>
@@ -6987,7 +6882,7 @@
         <v>376</v>
       </c>
       <c r="C377">
-        <v>5825</v>
+        <v>1116</v>
       </c>
       <c r="D377">
         <v>1</v>
@@ -7001,7 +6896,7 @@
         <v>377</v>
       </c>
       <c r="C378">
-        <v>1116</v>
+        <v>3751</v>
       </c>
       <c r="D378">
         <v>1</v>
@@ -7015,7 +6910,7 @@
         <v>378</v>
       </c>
       <c r="C379">
-        <v>258</v>
+        <v>147</v>
       </c>
       <c r="D379">
         <v>1</v>
@@ -7029,7 +6924,7 @@
         <v>379</v>
       </c>
       <c r="C380">
-        <v>147</v>
+        <v>12653</v>
       </c>
       <c r="D380">
         <v>1</v>
@@ -7043,7 +6938,7 @@
         <v>380</v>
       </c>
       <c r="C381">
-        <v>605</v>
+        <v>2281</v>
       </c>
       <c r="D381">
         <v>1</v>
@@ -7057,7 +6952,7 @@
         <v>381</v>
       </c>
       <c r="C382">
-        <v>1192</v>
+        <v>605</v>
       </c>
       <c r="D382">
         <v>1</v>
@@ -7071,7 +6966,7 @@
         <v>382</v>
       </c>
       <c r="C383">
-        <v>1313</v>
+        <v>1557</v>
       </c>
       <c r="D383">
         <v>1</v>
@@ -7085,7 +6980,7 @@
         <v>383</v>
       </c>
       <c r="C384">
-        <v>1492</v>
+        <v>1304</v>
       </c>
       <c r="D384">
         <v>1</v>
@@ -7099,7 +6994,7 @@
         <v>384</v>
       </c>
       <c r="C385">
-        <v>2219</v>
+        <v>1285</v>
       </c>
       <c r="D385">
         <v>1</v>
@@ -7113,7 +7008,7 @@
         <v>385</v>
       </c>
       <c r="C386">
-        <v>808</v>
+        <v>3003</v>
       </c>
       <c r="D386">
         <v>1</v>
@@ -7127,7 +7022,7 @@
         <v>386</v>
       </c>
       <c r="C387">
-        <v>1319</v>
+        <v>30</v>
       </c>
       <c r="D387">
         <v>1</v>
@@ -7141,7 +7036,7 @@
         <v>387</v>
       </c>
       <c r="C388">
-        <v>3751</v>
+        <v>147</v>
       </c>
       <c r="D388">
         <v>1</v>
@@ -7155,7 +7050,7 @@
         <v>388</v>
       </c>
       <c r="C389">
-        <v>258</v>
+        <v>1525</v>
       </c>
       <c r="D389">
         <v>1</v>
@@ -7169,7 +7064,7 @@
         <v>389</v>
       </c>
       <c r="C390">
-        <v>3761</v>
+        <v>2778</v>
       </c>
       <c r="D390">
         <v>1</v>
@@ -7183,7 +7078,7 @@
         <v>390</v>
       </c>
       <c r="C391">
-        <v>853</v>
+        <v>1149</v>
       </c>
       <c r="D391">
         <v>1</v>
@@ -7197,7 +7092,7 @@
         <v>391</v>
       </c>
       <c r="C392">
-        <v>6072</v>
+        <v>2947</v>
       </c>
       <c r="D392">
         <v>1</v>
@@ -7211,7 +7106,7 @@
         <v>392</v>
       </c>
       <c r="C393">
-        <v>1149</v>
+        <v>481</v>
       </c>
       <c r="D393">
         <v>1</v>
@@ -7225,7 +7120,7 @@
         <v>393</v>
       </c>
       <c r="C394">
-        <v>1209</v>
+        <v>3761</v>
       </c>
       <c r="D394">
         <v>1</v>
@@ -7239,7 +7134,7 @@
         <v>394</v>
       </c>
       <c r="C395">
-        <v>2281</v>
+        <v>1525</v>
       </c>
       <c r="D395">
         <v>1</v>
@@ -7253,7 +7148,7 @@
         <v>395</v>
       </c>
       <c r="C396">
-        <v>481</v>
+        <v>5825</v>
       </c>
       <c r="D396">
         <v>1</v>
@@ -7267,7 +7162,7 @@
         <v>396</v>
       </c>
       <c r="C397">
-        <v>1697</v>
+        <v>853</v>
       </c>
       <c r="D397">
         <v>1</v>
@@ -7281,7 +7176,7 @@
         <v>397</v>
       </c>
       <c r="C398">
-        <v>2189</v>
+        <v>1525</v>
       </c>
       <c r="D398">
         <v>1</v>
@@ -7295,7 +7190,7 @@
         <v>398</v>
       </c>
       <c r="C399">
-        <v>2683</v>
+        <v>1071</v>
       </c>
       <c r="D399">
         <v>1</v>
@@ -7309,7 +7204,7 @@
         <v>399</v>
       </c>
       <c r="C400">
-        <v>2683</v>
+        <v>2323</v>
       </c>
       <c r="D400">
         <v>1</v>
@@ -7323,7 +7218,7 @@
         <v>400</v>
       </c>
       <c r="C401">
-        <v>3098</v>
+        <v>1492</v>
       </c>
       <c r="D401">
         <v>1</v>
@@ -7337,7 +7232,7 @@
         <v>401</v>
       </c>
       <c r="C402">
-        <v>1838</v>
+        <v>1097</v>
       </c>
       <c r="D402">
         <v>1</v>
@@ -7351,7 +7246,7 @@
         <v>402</v>
       </c>
       <c r="C403">
-        <v>147</v>
+        <v>2189</v>
       </c>
       <c r="D403">
         <v>1</v>
@@ -7365,7 +7260,7 @@
         <v>403</v>
       </c>
       <c r="C404">
-        <v>610</v>
+        <v>1921</v>
       </c>
       <c r="D404">
         <v>1</v>
@@ -7379,7 +7274,7 @@
         <v>404</v>
       </c>
       <c r="C405">
-        <v>1856</v>
+        <v>3761</v>
       </c>
       <c r="D405">
         <v>1</v>
@@ -7393,7 +7288,7 @@
         <v>405</v>
       </c>
       <c r="C406">
-        <v>1896</v>
+        <v>5825</v>
       </c>
       <c r="D406">
         <v>1</v>
@@ -7407,7 +7302,7 @@
         <v>406</v>
       </c>
       <c r="C407">
-        <v>358</v>
+        <v>147</v>
       </c>
       <c r="D407">
         <v>1</v>
@@ -7421,7 +7316,7 @@
         <v>407</v>
       </c>
       <c r="C408">
-        <v>2323</v>
+        <v>946</v>
       </c>
       <c r="D408">
         <v>1</v>
@@ -7435,7 +7330,7 @@
         <v>408</v>
       </c>
       <c r="C409">
-        <v>1116</v>
+        <v>2189</v>
       </c>
       <c r="D409">
         <v>1</v>
@@ -7449,7 +7344,7 @@
         <v>409</v>
       </c>
       <c r="C410">
-        <v>3751</v>
+        <v>2431</v>
       </c>
       <c r="D410">
         <v>1</v>
@@ -7463,7 +7358,7 @@
         <v>410</v>
       </c>
       <c r="C411">
-        <v>147</v>
+        <v>2431</v>
       </c>
       <c r="D411">
         <v>1</v>
@@ -7477,7 +7372,7 @@
         <v>411</v>
       </c>
       <c r="C412">
-        <v>12653</v>
+        <v>2710</v>
       </c>
       <c r="D412">
         <v>1</v>
@@ -7491,7 +7386,7 @@
         <v>412</v>
       </c>
       <c r="C413">
-        <v>605</v>
+        <v>1319</v>
       </c>
       <c r="D413">
         <v>1</v>
@@ -7505,7 +7400,7 @@
         <v>413</v>
       </c>
       <c r="C414">
-        <v>5554</v>
+        <v>610</v>
       </c>
       <c r="D414">
         <v>1</v>
@@ -7519,499 +7414,9 @@
         <v>414</v>
       </c>
       <c r="C415">
-        <v>1525</v>
+        <v>329</v>
       </c>
       <c r="D415">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4">
-      <c r="A416" s="1">
-        <v>413</v>
-      </c>
-      <c r="B416" t="s">
-        <v>415</v>
-      </c>
-      <c r="C416">
-        <v>1285</v>
-      </c>
-      <c r="D416">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4">
-      <c r="A417" s="1">
-        <v>414</v>
-      </c>
-      <c r="B417" t="s">
-        <v>416</v>
-      </c>
-      <c r="C417">
-        <v>3003</v>
-      </c>
-      <c r="D417">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4">
-      <c r="A418" s="1">
-        <v>415</v>
-      </c>
-      <c r="B418" t="s">
-        <v>417</v>
-      </c>
-      <c r="C418">
-        <v>0</v>
-      </c>
-      <c r="D418">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4">
-      <c r="A419" s="1">
-        <v>416</v>
-      </c>
-      <c r="B419" t="s">
-        <v>418</v>
-      </c>
-      <c r="C419">
-        <v>30</v>
-      </c>
-      <c r="D419">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4">
-      <c r="A420" s="1">
-        <v>417</v>
-      </c>
-      <c r="B420" t="s">
-        <v>419</v>
-      </c>
-      <c r="C420">
-        <v>147</v>
-      </c>
-      <c r="D420">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4">
-      <c r="A421" s="1">
-        <v>418</v>
-      </c>
-      <c r="B421" t="s">
-        <v>420</v>
-      </c>
-      <c r="C421">
-        <v>1525</v>
-      </c>
-      <c r="D421">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4">
-      <c r="A422" s="1">
-        <v>419</v>
-      </c>
-      <c r="B422" t="s">
-        <v>421</v>
-      </c>
-      <c r="C422">
-        <v>1557</v>
-      </c>
-      <c r="D422">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4">
-      <c r="A423" s="1">
-        <v>420</v>
-      </c>
-      <c r="B423" t="s">
-        <v>422</v>
-      </c>
-      <c r="C423">
-        <v>2778</v>
-      </c>
-      <c r="D423">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4">
-      <c r="A424" s="1">
-        <v>421</v>
-      </c>
-      <c r="B424" t="s">
-        <v>423</v>
-      </c>
-      <c r="C424">
-        <v>2947</v>
-      </c>
-      <c r="D424">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4">
-      <c r="A425" s="1">
-        <v>422</v>
-      </c>
-      <c r="B425" t="s">
-        <v>424</v>
-      </c>
-      <c r="C425">
-        <v>481</v>
-      </c>
-      <c r="D425">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4">
-      <c r="A426" s="1">
-        <v>423</v>
-      </c>
-      <c r="B426" t="s">
-        <v>425</v>
-      </c>
-      <c r="C426">
-        <v>3761</v>
-      </c>
-      <c r="D426">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4">
-      <c r="A427" s="1">
-        <v>424</v>
-      </c>
-      <c r="B427" t="s">
-        <v>426</v>
-      </c>
-      <c r="C427">
-        <v>1525</v>
-      </c>
-      <c r="D427">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4">
-      <c r="A428" s="1">
-        <v>425</v>
-      </c>
-      <c r="B428" t="s">
-        <v>427</v>
-      </c>
-      <c r="C428">
-        <v>5825</v>
-      </c>
-      <c r="D428">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4">
-      <c r="A429" s="1">
-        <v>426</v>
-      </c>
-      <c r="B429" t="s">
-        <v>428</v>
-      </c>
-      <c r="C429">
-        <v>318</v>
-      </c>
-      <c r="D429">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4">
-      <c r="A430" s="1">
-        <v>427</v>
-      </c>
-      <c r="B430" t="s">
-        <v>429</v>
-      </c>
-      <c r="C430">
-        <v>853</v>
-      </c>
-      <c r="D430">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4">
-      <c r="A431" s="1">
-        <v>428</v>
-      </c>
-      <c r="B431" t="s">
-        <v>430</v>
-      </c>
-      <c r="C431">
-        <v>1304</v>
-      </c>
-      <c r="D431">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4">
-      <c r="A432" s="1">
-        <v>429</v>
-      </c>
-      <c r="B432" t="s">
-        <v>431</v>
-      </c>
-      <c r="C432">
-        <v>1071</v>
-      </c>
-      <c r="D432">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4">
-      <c r="A433" s="1">
-        <v>430</v>
-      </c>
-      <c r="B433" t="s">
-        <v>432</v>
-      </c>
-      <c r="C433">
-        <v>1149</v>
-      </c>
-      <c r="D433">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4">
-      <c r="A434" s="1">
-        <v>431</v>
-      </c>
-      <c r="B434" t="s">
-        <v>433</v>
-      </c>
-      <c r="C434">
-        <v>2323</v>
-      </c>
-      <c r="D434">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4">
-      <c r="A435" s="1">
-        <v>432</v>
-      </c>
-      <c r="B435" t="s">
-        <v>434</v>
-      </c>
-      <c r="C435">
-        <v>610</v>
-      </c>
-      <c r="D435">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4">
-      <c r="A436" s="1">
-        <v>433</v>
-      </c>
-      <c r="B436" t="s">
-        <v>435</v>
-      </c>
-      <c r="C436">
-        <v>1116</v>
-      </c>
-      <c r="D436">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4">
-      <c r="A437" s="1">
-        <v>434</v>
-      </c>
-      <c r="B437" t="s">
-        <v>436</v>
-      </c>
-      <c r="C437">
-        <v>1319</v>
-      </c>
-      <c r="D437">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4">
-      <c r="A438" s="1">
-        <v>435</v>
-      </c>
-      <c r="B438" t="s">
-        <v>437</v>
-      </c>
-      <c r="C438">
-        <v>2710</v>
-      </c>
-      <c r="D438">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4">
-      <c r="A439" s="1">
-        <v>436</v>
-      </c>
-      <c r="B439" t="s">
-        <v>438</v>
-      </c>
-      <c r="C439">
-        <v>2431</v>
-      </c>
-      <c r="D439">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4">
-      <c r="A440" s="1">
-        <v>437</v>
-      </c>
-      <c r="B440" t="s">
-        <v>439</v>
-      </c>
-      <c r="C440">
-        <v>2431</v>
-      </c>
-      <c r="D440">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4">
-      <c r="A441" s="1">
-        <v>438</v>
-      </c>
-      <c r="B441" t="s">
-        <v>440</v>
-      </c>
-      <c r="C441">
-        <v>2189</v>
-      </c>
-      <c r="D441">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4">
-      <c r="A442" s="1">
-        <v>439</v>
-      </c>
-      <c r="B442" t="s">
-        <v>441</v>
-      </c>
-      <c r="C442">
-        <v>946</v>
-      </c>
-      <c r="D442">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4">
-      <c r="A443" s="1">
-        <v>440</v>
-      </c>
-      <c r="B443" t="s">
-        <v>442</v>
-      </c>
-      <c r="C443">
-        <v>147</v>
-      </c>
-      <c r="D443">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4">
-      <c r="A444" s="1">
-        <v>441</v>
-      </c>
-      <c r="B444" t="s">
-        <v>443</v>
-      </c>
-      <c r="C444">
-        <v>5825</v>
-      </c>
-      <c r="D444">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4">
-      <c r="A445" s="1">
-        <v>442</v>
-      </c>
-      <c r="B445" t="s">
-        <v>444</v>
-      </c>
-      <c r="C445">
-        <v>3761</v>
-      </c>
-      <c r="D445">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4">
-      <c r="A446" s="1">
-        <v>443</v>
-      </c>
-      <c r="B446" t="s">
-        <v>445</v>
-      </c>
-      <c r="C446">
-        <v>1921</v>
-      </c>
-      <c r="D446">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4">
-      <c r="A447" s="1">
-        <v>444</v>
-      </c>
-      <c r="B447" t="s">
-        <v>446</v>
-      </c>
-      <c r="C447">
-        <v>2189</v>
-      </c>
-      <c r="D447">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4">
-      <c r="A448" s="1">
-        <v>445</v>
-      </c>
-      <c r="B448" t="s">
-        <v>447</v>
-      </c>
-      <c r="C448">
-        <v>1097</v>
-      </c>
-      <c r="D448">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4">
-      <c r="A449" s="1">
-        <v>446</v>
-      </c>
-      <c r="B449" t="s">
-        <v>448</v>
-      </c>
-      <c r="C449">
-        <v>1492</v>
-      </c>
-      <c r="D449">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4">
-      <c r="A450" s="1">
-        <v>447</v>
-      </c>
-      <c r="B450" t="s">
-        <v>449</v>
-      </c>
-      <c r="C450">
-        <v>329</v>
-      </c>
-      <c r="D450">
         <v>1</v>
       </c>
     </row>
